--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27590.81648737697</v>
+        <v>18219.6000912771</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31532705.30596698</v>
+        <v>31505327.9527372</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12579161.93608993</v>
+        <v>12551784.58286016</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3426339.316432775</v>
+        <v>3444615.0451269</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.48814958926336</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="G2" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="H2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.021643902788004</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.536891551628976</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>16.04668504368032</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -782,31 +782,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.50419080107098</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>14.54249424260935</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>16.04668504368032</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5891238419305889</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.5891238419305855</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C5" t="n">
-        <v>18.21830727030011</v>
+        <v>16.04668504368032</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788004</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.536891551628976</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.49488714450009</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13.21156971506337</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
     </row>
     <row r="6">
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>16.04668504368032</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.888458418784962</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5.593284575504772</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5891238419305889</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.5891238419305855</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1585647136001356</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="T8" t="n">
-        <v>23.50971295904439</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="U8" t="n">
-        <v>20.54879046072617</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="V8" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>23.50971295904439</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7073551743263</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="X9" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.183833028195936</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>88.09368046800171</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>88.09368046800171</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.04715655754853</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>77.59291375621589</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>88.09368046800171</v>
       </c>
       <c r="V11" t="n">
-        <v>64.54575719866719</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>88.09368046800171</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>88.09368046800171</v>
       </c>
       <c r="E12" t="n">
-        <v>39.97208766462879</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49.96045477193429</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.89866348159544</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.146189892547326</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>12.88371534270428</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>88.09368046800171</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>76.72452921209067</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>76.72452921209089</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>77.59291375621572</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>88.09368046800152</v>
+        <v>64.54575719866735</v>
       </c>
       <c r="H14" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.04715655754851</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.09368046800165</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>88.09368046800165</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>88.09368046800165</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>12.88371534270441</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88371534270434</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>88.09368046800165</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>88.09368046800165</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>88.09368046800165</v>
       </c>
       <c r="X15" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.72452921209086</v>
       </c>
       <c r="I16" t="n">
-        <v>76.72452921209067</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.075359501527</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>272.1509215527804</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>167.7107256070838</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.5937353267583</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>168.0742158439369</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>72.48695860759834</v>
       </c>
       <c r="C18" t="n">
         <v>116.3308444476703</v>
@@ -1937,10 +1937,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>78.14350721272807</v>
+        <v>91.92526226042889</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>41.36902567056269</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>58.44494974266428</v>
+        <v>58.44494974266427</v>
       </c>
       <c r="T18" t="n">
         <v>135.6727763101777</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.81292740210307</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.5033546283313</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>236.6505074109398</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3282791608423</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>145.8228398437183</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>236.4279275689049</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>11.85218399570911</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.075359501527</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.7282549930028</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.5937353267583</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>91.92526226042889</v>
       </c>
       <c r="H21" t="n">
-        <v>41.3690256705627</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>58.44494974266428</v>
+        <v>44.66319469496332</v>
       </c>
       <c r="T21" t="n">
         <v>135.6727763101777</v>
@@ -2219,7 +2219,7 @@
         <v>182.8423580798134</v>
       </c>
       <c r="V21" t="n">
-        <v>147.7726267538623</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
         <v>194.556163395115</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.786439317393004</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>151.0769061989316</v>
       </c>
       <c r="T22" t="n">
-        <v>236.6505074109398</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>235.1043641839028</v>
+        <v>92.79591589484565</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>123.3258614192061</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>307.2624868114104</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.68612448808641</v>
+        <v>75.29273597183067</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.012519220714</v>
@@ -2608,7 +2608,7 @@
         <v>51.29628209397735</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
         <v>255.5887081042933</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>297.0693791373526</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>59.90206045819255</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>199.2067799702817</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.5707734986121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>134.4207869981288</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
         <v>271.5073585269046</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>141.783910273771</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.6377393258626</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C30" t="n">
         <v>116.3308444476703</v>
@@ -2879,7 +2879,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E30" t="n">
-        <v>103.6549143897921</v>
+        <v>103.6549143897925</v>
       </c>
       <c r="F30" t="n">
         <v>92.70937201392488</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>271.2612705660953</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>108.4725137097995</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>349.9006595750702</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>374.220906078891</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3125,7 +3125,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H33" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570837</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.8204262844178</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T33" t="n">
         <v>135.5372539824022</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.93802506833858</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>132.5891117869591</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3268,13 +3268,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>15.2787495799614</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>109.8338958225134</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>51.29628209397735</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C36" t="n">
-        <v>116.3308444476707</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D36" t="n">
         <v>102.8015588998678</v>
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570838</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>120.6756040976019</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>121.753056670549</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.012519220714</v>
+        <v>352.9555961389563</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>195.5902658075057</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E39" t="n">
-        <v>103.6549143897926</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
         <v>92.70937201392488</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
-        <v>89.32593201790233</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.5190049372437358</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.5300678317505</v>
+        <v>29.06362348709652</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>126.167269218849</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>83.12450490415162</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.6337801671287</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>131.2346897866123</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>198.497596361066</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>358.7571207170723</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>135.5372539824022</v>
       </c>
       <c r="U45" t="n">
-        <v>182.8401460722872</v>
+        <v>182.8401460722877</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>132.5891117869591</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>2.482919606648587</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.3107123623833</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="C2" t="n">
-        <v>70.3107123623833</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="D2" t="n">
-        <v>70.3107123623833</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="E2" t="n">
-        <v>70.3107123623833</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="F2" t="n">
-        <v>59.71662186817789</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="G2" t="n">
-        <v>41.31429129211717</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H2" t="n">
-        <v>22.91196071605645</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I2" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J2" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992286</v>
+        <v>5.219099475992257</v>
       </c>
       <c r="L2" t="n">
-        <v>15.88227649088182</v>
+        <v>15.88227649088179</v>
       </c>
       <c r="M2" t="n">
-        <v>32.8933990788639</v>
+        <v>32.89339907886386</v>
       </c>
       <c r="N2" t="n">
-        <v>50.92952327646101</v>
+        <v>50.92952327646097</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79354395927301</v>
+        <v>65.79354395927295</v>
       </c>
       <c r="P2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="Q2" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="R2" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="S2" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="T2" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="U2" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="V2" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="W2" t="n">
-        <v>70.3107123623833</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="X2" t="n">
-        <v>70.3107123623833</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="Y2" t="n">
-        <v>70.3107123623833</v>
+        <v>56.66445630980611</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K3" t="n">
-        <v>5.886021080118652</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="L3" t="n">
-        <v>19.36817474787378</v>
+        <v>10.6352847439671</v>
       </c>
       <c r="M3" t="n">
-        <v>37.4042989454709</v>
+        <v>28.67140894156419</v>
       </c>
       <c r="N3" t="n">
-        <v>55.44042314306801</v>
+        <v>46.70753313916128</v>
       </c>
       <c r="O3" t="n">
-        <v>71.69888962564613</v>
+        <v>62.96599962173941</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.353844433654</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="R3" t="n">
-        <v>71.353844433654</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="S3" t="n">
-        <v>52.95151385759328</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="T3" t="n">
-        <v>34.54918328153256</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="U3" t="n">
-        <v>16.14685270547184</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="V3" t="n">
-        <v>1.457464581624009</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="W3" t="n">
-        <v>1.457464581624009</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="X3" t="n">
-        <v>1.457464581624009</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768471</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="L4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="M4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="O4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="P4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="R4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="S4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="T4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="U4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="V4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="W4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="X4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.91196071605645</v>
+        <v>17.66623735301826</v>
       </c>
       <c r="C5" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D5" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E5" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F5" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G5" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H5" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I5" t="n">
-        <v>4.50963013999573</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K5" t="n">
         <v>5.219099475992266</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088181</v>
+        <v>15.88227649088179</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886389</v>
+        <v>32.89339907886384</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646102</v>
+        <v>50.92952327646094</v>
       </c>
       <c r="O5" t="n">
-        <v>65.79354395927301</v>
+        <v>65.79354395927295</v>
       </c>
       <c r="P5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="R5" t="n">
-        <v>54.6593112063226</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="S5" t="n">
-        <v>54.6593112063226</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="T5" t="n">
-        <v>41.31429129211717</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="U5" t="n">
-        <v>22.91196071605645</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="V5" t="n">
-        <v>22.91196071605645</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="W5" t="n">
-        <v>22.91196071605645</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="X5" t="n">
-        <v>22.91196071605645</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.91196071605645</v>
+        <v>36.06856792907897</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.94349881803164</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="C6" t="n">
-        <v>16.94349881803164</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="D6" t="n">
-        <v>16.94349881803164</v>
+        <v>36.06856792907897</v>
       </c>
       <c r="E6" t="n">
-        <v>16.94349881803164</v>
+        <v>36.06856792907897</v>
       </c>
       <c r="F6" t="n">
-        <v>16.94349881803164</v>
+        <v>17.66623735301826</v>
       </c>
       <c r="G6" t="n">
-        <v>16.94349881803164</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H6" t="n">
-        <v>16.94349881803164</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I6" t="n">
-        <v>6.395301368275486</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J6" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118652</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="L6" t="n">
-        <v>19.36817474787378</v>
+        <v>10.6352847439671</v>
       </c>
       <c r="M6" t="n">
-        <v>37.4042989454709</v>
+        <v>28.67140894156419</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916134</v>
+        <v>46.70753313916128</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173947</v>
+        <v>62.96599962173941</v>
       </c>
       <c r="P6" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="R6" t="n">
-        <v>59.39794236965285</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="S6" t="n">
-        <v>40.99561179359213</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="T6" t="n">
-        <v>22.59328121753141</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="U6" t="n">
-        <v>16.94349881803164</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="V6" t="n">
-        <v>16.94349881803164</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="W6" t="n">
-        <v>16.94349881803164</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="X6" t="n">
-        <v>16.94349881803164</v>
+        <v>54.47089850513967</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.94349881803164</v>
+        <v>54.47089850513967</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="L7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="M7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="N7" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="O7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="P7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="R7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="S7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="T7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="U7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="V7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="W7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="X7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="C8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="D8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="E8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="F8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="G8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="H8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K8" t="n">
-        <v>8.4159116854429</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L8" t="n">
-        <v>22.51986039522949</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M8" t="n">
-        <v>43.35950445951397</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N8" t="n">
-        <v>65.28609961349602</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O8" t="n">
-        <v>83.8237816996544</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P8" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q8" t="n">
-        <v>93.87868545880369</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R8" t="n">
-        <v>93.87868545880369</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S8" t="n">
-        <v>93.87868545880369</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="T8" t="n">
-        <v>70.13150065168814</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="U8" t="n">
-        <v>49.37514665095464</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="V8" t="n">
-        <v>25.6279618438391</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="W8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="X8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="C9" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="D9" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="E9" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="F9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K9" t="n">
-        <v>8.193129398185485</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L9" t="n">
-        <v>24.20827907854881</v>
+        <v>17.89592671708687</v>
       </c>
       <c r="M9" t="n">
-        <v>46.0426944477166</v>
+        <v>39.73034208625465</v>
       </c>
       <c r="N9" t="n">
-        <v>62.86984279257513</v>
+        <v>62.86984279257508</v>
       </c>
       <c r="O9" t="n">
-        <v>81.90393668038418</v>
+        <v>81.90393668038412</v>
       </c>
       <c r="P9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S9" t="n">
-        <v>70.29166702906201</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T9" t="n">
-        <v>46.54448222194647</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="U9" t="n">
-        <v>25.6279618438391</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="V9" t="n">
-        <v>25.6279618438391</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="W9" t="n">
-        <v>25.6279618438391</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="X9" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="C10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="D10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="E10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="F10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="G10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="H10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L10" t="n">
-        <v>2.170301745874839</v>
+        <v>2.170301745874834</v>
       </c>
       <c r="M10" t="n">
-        <v>3.005035947119213</v>
+        <v>3.005035947119205</v>
       </c>
       <c r="N10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="W10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="X10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.22644045516591</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="C11" t="n">
-        <v>20.22644045516591</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="D11" t="n">
-        <v>20.22644045516591</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="E11" t="n">
-        <v>20.22644045516591</v>
+        <v>96.03101006168428</v>
       </c>
       <c r="F11" t="n">
-        <v>20.22644045516591</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="G11" t="n">
-        <v>20.22644045516591</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="H11" t="n">
-        <v>20.22644045516591</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="I11" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="J11" t="n">
-        <v>24.7825204949059</v>
+        <v>24.78252049490595</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60773643878167</v>
+        <v>59.60773643878179</v>
       </c>
       <c r="L11" t="n">
-        <v>108.8080325753178</v>
+        <v>108.8080325753181</v>
       </c>
       <c r="M11" t="n">
-        <v>168.6991254940435</v>
+        <v>168.6991254940439</v>
       </c>
       <c r="N11" t="n">
-        <v>230.3090627719645</v>
+        <v>230.309062771965</v>
       </c>
       <c r="O11" t="n">
-        <v>286.3185995386593</v>
+        <v>286.31859953866</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5150307030225</v>
+        <v>328.5150307030233</v>
       </c>
       <c r="Q11" t="n">
-        <v>352.374721872006</v>
+        <v>352.3747218720068</v>
       </c>
       <c r="R11" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720068</v>
       </c>
       <c r="S11" t="n">
-        <v>263.3912062477621</v>
+        <v>352.3747218720068</v>
       </c>
       <c r="T11" t="n">
-        <v>263.3912062477621</v>
+        <v>273.9980413101726</v>
       </c>
       <c r="U11" t="n">
-        <v>263.3912062477621</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="V11" t="n">
-        <v>198.1934717036538</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="W11" t="n">
-        <v>109.2099560794099</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="X11" t="n">
-        <v>20.22644045516591</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.22644045516591</v>
+        <v>185.0145256859284</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>281.8137235830579</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="C12" t="n">
-        <v>281.8137235830579</v>
+        <v>96.03101006168428</v>
       </c>
       <c r="D12" t="n">
-        <v>281.8137235830579</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="E12" t="n">
-        <v>241.4378774571702</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="F12" t="n">
-        <v>152.4543618329262</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="G12" t="n">
-        <v>63.47084620868227</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="H12" t="n">
-        <v>13.00574037844562</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="I12" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="J12" t="n">
-        <v>14.55245432966377</v>
+        <v>14.55245432966381</v>
       </c>
       <c r="K12" t="n">
-        <v>40.07978517569843</v>
+        <v>40.07978517569853</v>
       </c>
       <c r="L12" t="n">
-        <v>81.93184470419641</v>
+        <v>81.93184470419658</v>
       </c>
       <c r="M12" t="n">
-        <v>133.9167152178292</v>
+        <v>133.9167152178294</v>
       </c>
       <c r="N12" t="n">
-        <v>189.6188753669568</v>
+        <v>189.6188753669571</v>
       </c>
       <c r="O12" t="n">
-        <v>236.9647528833238</v>
+        <v>236.9647528833241</v>
       </c>
       <c r="P12" t="n">
-        <v>271.8223704119701</v>
+        <v>271.8223704119706</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.0118951916916</v>
+        <v>287.0118951916921</v>
       </c>
       <c r="R12" t="n">
-        <v>281.8137235830579</v>
+        <v>287.0118951916921</v>
       </c>
       <c r="S12" t="n">
-        <v>281.8137235830579</v>
+        <v>287.0118951916921</v>
       </c>
       <c r="T12" t="n">
-        <v>281.8137235830579</v>
+        <v>287.0118951916921</v>
       </c>
       <c r="U12" t="n">
-        <v>281.8137235830579</v>
+        <v>287.0118951916921</v>
       </c>
       <c r="V12" t="n">
-        <v>281.8137235830579</v>
+        <v>273.9980413101726</v>
       </c>
       <c r="W12" t="n">
-        <v>281.8137235830579</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="X12" t="n">
-        <v>281.8137235830579</v>
+        <v>185.0145256859284</v>
       </c>
       <c r="Y12" t="n">
-        <v>281.8137235830579</v>
+        <v>185.0145256859284</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="C13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="D13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="E13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="F13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="G13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="H13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="I13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="J13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="K13" t="n">
-        <v>15.06648958421998</v>
+        <v>15.06648958422002</v>
       </c>
       <c r="L13" t="n">
-        <v>30.18773465530781</v>
+        <v>30.18773465530789</v>
       </c>
       <c r="M13" t="n">
-        <v>46.66043841756915</v>
+        <v>46.66043841756927</v>
       </c>
       <c r="N13" t="n">
-        <v>64.01830606238374</v>
+        <v>64.01830606238391</v>
       </c>
       <c r="O13" t="n">
-        <v>76.75022933554698</v>
+        <v>76.75022933554717</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54701889409738</v>
+        <v>84.5470188940976</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.54701889409738</v>
+        <v>84.5470188940976</v>
       </c>
       <c r="R13" t="n">
-        <v>84.54701889409738</v>
+        <v>84.5470188940976</v>
       </c>
       <c r="S13" t="n">
-        <v>84.54701889409738</v>
+        <v>84.5470188940976</v>
       </c>
       <c r="T13" t="n">
-        <v>7.047494437440122</v>
+        <v>84.5470188940976</v>
       </c>
       <c r="U13" t="n">
-        <v>7.047494437440122</v>
+        <v>84.5470188940976</v>
       </c>
       <c r="V13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="W13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="X13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440137</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>352.3747218720061</v>
+        <v>85.42417499927433</v>
       </c>
       <c r="C14" t="n">
-        <v>352.3747218720061</v>
+        <v>85.42417499927433</v>
       </c>
       <c r="D14" t="n">
-        <v>352.3747218720061</v>
+        <v>85.42417499927433</v>
       </c>
       <c r="E14" t="n">
-        <v>273.998041310172</v>
+        <v>85.42417499927433</v>
       </c>
       <c r="F14" t="n">
-        <v>185.014525685928</v>
+        <v>85.42417499927433</v>
       </c>
       <c r="G14" t="n">
-        <v>96.03101006168409</v>
+        <v>20.2264404551659</v>
       </c>
       <c r="H14" t="n">
-        <v>7.047494437440122</v>
+        <v>20.2264404551659</v>
       </c>
       <c r="I14" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="J14" t="n">
-        <v>24.7825204949059</v>
+        <v>24.78252049490595</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60773643878167</v>
+        <v>59.60773643878179</v>
       </c>
       <c r="L14" t="n">
-        <v>108.8080325753178</v>
+        <v>108.808032575318</v>
       </c>
       <c r="M14" t="n">
-        <v>168.6991254940435</v>
+        <v>168.6991254940438</v>
       </c>
       <c r="N14" t="n">
-        <v>230.3090627719645</v>
+        <v>230.3090627719649</v>
       </c>
       <c r="O14" t="n">
-        <v>286.3185995386593</v>
+        <v>286.3185995386598</v>
       </c>
       <c r="P14" t="n">
-        <v>328.5150307030225</v>
+        <v>328.5150307030231</v>
       </c>
       <c r="Q14" t="n">
-        <v>352.374721872006</v>
+        <v>352.3747218720066</v>
       </c>
       <c r="R14" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720066</v>
       </c>
       <c r="S14" t="n">
-        <v>352.3747218720061</v>
+        <v>263.3912062477625</v>
       </c>
       <c r="T14" t="n">
-        <v>352.3747218720061</v>
+        <v>263.3912062477625</v>
       </c>
       <c r="U14" t="n">
-        <v>352.3747218720061</v>
+        <v>263.3912062477625</v>
       </c>
       <c r="V14" t="n">
-        <v>352.3747218720061</v>
+        <v>174.4076906235184</v>
       </c>
       <c r="W14" t="n">
-        <v>352.3747218720061</v>
+        <v>85.42417499927433</v>
       </c>
       <c r="X14" t="n">
-        <v>352.3747218720061</v>
+        <v>85.42417499927433</v>
       </c>
       <c r="Y14" t="n">
-        <v>352.3747218720061</v>
+        <v>85.42417499927433</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="C15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="D15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="E15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="F15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="G15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="H15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="I15" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="J15" t="n">
-        <v>14.55245432966377</v>
+        <v>14.5524543296638</v>
       </c>
       <c r="K15" t="n">
-        <v>40.07978517569843</v>
+        <v>40.07978517569852</v>
       </c>
       <c r="L15" t="n">
-        <v>81.93184470419641</v>
+        <v>81.93184470419655</v>
       </c>
       <c r="M15" t="n">
-        <v>133.9167152178292</v>
+        <v>133.9167152178294</v>
       </c>
       <c r="N15" t="n">
-        <v>189.6188753669568</v>
+        <v>189.618875366957</v>
       </c>
       <c r="O15" t="n">
-        <v>236.9647528833238</v>
+        <v>236.9647528833241</v>
       </c>
       <c r="P15" t="n">
-        <v>271.8223704119701</v>
+        <v>271.8223704119705</v>
       </c>
       <c r="Q15" t="n">
-        <v>287.0118951916916</v>
+        <v>287.011895191692</v>
       </c>
       <c r="R15" t="n">
-        <v>287.0118951916916</v>
+        <v>287.011895191692</v>
       </c>
       <c r="S15" t="n">
-        <v>273.998041310172</v>
+        <v>287.011895191692</v>
       </c>
       <c r="T15" t="n">
-        <v>185.014525685928</v>
+        <v>287.011895191692</v>
       </c>
       <c r="U15" t="n">
-        <v>185.014525685928</v>
+        <v>198.0283795674479</v>
       </c>
       <c r="V15" t="n">
-        <v>185.014525685928</v>
+        <v>109.0448639432038</v>
       </c>
       <c r="W15" t="n">
-        <v>185.014525685928</v>
+        <v>20.06134831895974</v>
       </c>
       <c r="X15" t="n">
-        <v>96.03101006168409</v>
+        <v>20.06134831895974</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.047494437440122</v>
+        <v>20.06134831895974</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="C16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="D16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="E16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="G16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="H16" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="I16" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="J16" t="n">
-        <v>7.047494437440122</v>
+        <v>7.047494437440132</v>
       </c>
       <c r="K16" t="n">
-        <v>15.06648958421998</v>
+        <v>15.06648958422001</v>
       </c>
       <c r="L16" t="n">
-        <v>30.18773465530781</v>
+        <v>30.18773465530787</v>
       </c>
       <c r="M16" t="n">
-        <v>46.66043841756915</v>
+        <v>46.66043841756925</v>
       </c>
       <c r="N16" t="n">
-        <v>64.01830606238374</v>
+        <v>64.01830606238389</v>
       </c>
       <c r="O16" t="n">
-        <v>76.75022933554698</v>
+        <v>76.75022933554715</v>
       </c>
       <c r="P16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="R16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="S16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="T16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="V16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="X16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409758</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2003.622143275543</v>
+        <v>1597.917711375028</v>
       </c>
       <c r="C17" t="n">
-        <v>1576.721413288843</v>
+        <v>1597.917711375028</v>
       </c>
       <c r="D17" t="n">
-        <v>1576.721413288843</v>
+        <v>1174.625090560028</v>
       </c>
       <c r="E17" t="n">
-        <v>1150.744473436701</v>
+        <v>748.6481507078856</v>
       </c>
       <c r="F17" t="n">
-        <v>725.620291626101</v>
+        <v>323.5239688972859</v>
       </c>
       <c r="G17" t="n">
-        <v>323.5239688972858</v>
+        <v>323.5239688972859</v>
       </c>
       <c r="H17" t="n">
-        <v>48.62404813690162</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="I17" t="n">
-        <v>99.16422808906819</v>
+        <v>99.16422808906827</v>
       </c>
       <c r="J17" t="n">
-        <v>256.6002356925471</v>
+        <v>256.6002356925469</v>
       </c>
       <c r="K17" t="n">
         <v>500.8010092303039</v>
       </c>
       <c r="L17" t="n">
-        <v>809.7501988153149</v>
+        <v>809.7501988153148</v>
       </c>
       <c r="M17" t="n">
         <v>1158.661983949141</v>
@@ -5530,37 +5530,37 @@
         <v>1513.969270404034</v>
       </c>
       <c r="O17" t="n">
-        <v>1847.308885722233</v>
+        <v>1847.308885722234</v>
       </c>
       <c r="P17" t="n">
-        <v>2126.200122672174</v>
+        <v>2126.200122672175</v>
       </c>
       <c r="Q17" t="n">
-        <v>2327.807755589071</v>
+        <v>2327.807755589073</v>
       </c>
       <c r="R17" t="n">
-        <v>2431.202406845081</v>
+        <v>2431.202406845082</v>
       </c>
       <c r="S17" t="n">
-        <v>2431.202406845081</v>
+        <v>2431.202406845082</v>
       </c>
       <c r="T17" t="n">
-        <v>2261.797633504592</v>
+        <v>2431.202406845082</v>
       </c>
       <c r="U17" t="n">
-        <v>2003.622143275543</v>
+        <v>2173.026916616033</v>
       </c>
       <c r="V17" t="n">
-        <v>2003.622143275543</v>
+        <v>2173.026916616033</v>
       </c>
       <c r="W17" t="n">
-        <v>2003.622143275543</v>
+        <v>2173.026916616033</v>
       </c>
       <c r="X17" t="n">
-        <v>2003.622143275543</v>
+        <v>2003.254981420137</v>
       </c>
       <c r="Y17" t="n">
-        <v>2003.622143275543</v>
+        <v>1597.917711375028</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1216.8428847673</v>
+        <v>602.95836902806</v>
       </c>
       <c r="C18" t="n">
-        <v>1099.336981284805</v>
+        <v>485.4524655455648</v>
       </c>
       <c r="D18" t="n">
-        <v>995.4970228000902</v>
+        <v>381.6125070608498</v>
       </c>
       <c r="E18" t="n">
-        <v>890.7950890730275</v>
+        <v>276.910573333787</v>
       </c>
       <c r="F18" t="n">
-        <v>797.1492587559317</v>
+        <v>183.2647430166911</v>
       </c>
       <c r="G18" t="n">
-        <v>718.2164231875195</v>
+        <v>90.41094275363164</v>
       </c>
       <c r="H18" t="n">
-        <v>718.2164231875195</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="I18" t="n">
-        <v>742.6984044975562</v>
+        <v>73.10602944693839</v>
       </c>
       <c r="J18" t="n">
-        <v>833.408311951051</v>
+        <v>163.8159369004332</v>
       </c>
       <c r="K18" t="n">
-        <v>1001.14615086836</v>
+        <v>331.5537758177421</v>
       </c>
       <c r="L18" t="n">
-        <v>1234.217788365417</v>
+        <v>564.6254133147989</v>
       </c>
       <c r="M18" t="n">
-        <v>1509.346887123543</v>
+        <v>839.7545120729251</v>
       </c>
       <c r="N18" t="n">
-        <v>1794.099239252421</v>
+        <v>1124.506864201804</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.981293843031</v>
+        <v>1381.388918792414</v>
       </c>
       <c r="P18" t="n">
-        <v>2254.010166509444</v>
+        <v>1584.417791458827</v>
       </c>
       <c r="Q18" t="n">
-        <v>2381.617721734513</v>
+        <v>1712.025346683896</v>
       </c>
       <c r="R18" t="n">
-        <v>2431.202406845081</v>
+        <v>1761.610031794464</v>
       </c>
       <c r="S18" t="n">
-        <v>2372.167104074713</v>
+        <v>1702.574729024096</v>
       </c>
       <c r="T18" t="n">
-        <v>2235.123895680594</v>
+        <v>1565.531520629977</v>
       </c>
       <c r="U18" t="n">
-        <v>2050.434645094924</v>
+        <v>1380.842270044307</v>
       </c>
       <c r="V18" t="n">
-        <v>1845.46150623419</v>
+        <v>1175.869131183573</v>
       </c>
       <c r="W18" t="n">
-        <v>1648.940129067408</v>
+        <v>979.34775401679</v>
       </c>
       <c r="X18" t="n">
-        <v>1485.462782834071</v>
+        <v>815.8704077834528</v>
       </c>
       <c r="Y18" t="n">
-        <v>1345.769894187363</v>
+        <v>676.1775191367452</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.62404813690162</v>
+        <v>183.4759214988525</v>
       </c>
       <c r="C19" t="n">
-        <v>48.62404813690162</v>
+        <v>183.4759214988525</v>
       </c>
       <c r="D19" t="n">
-        <v>48.62404813690162</v>
+        <v>183.4759214988525</v>
       </c>
       <c r="E19" t="n">
-        <v>48.62404813690162</v>
+        <v>183.4759214988525</v>
       </c>
       <c r="F19" t="n">
-        <v>48.62404813690162</v>
+        <v>183.4759214988525</v>
       </c>
       <c r="G19" t="n">
-        <v>48.62404813690162</v>
+        <v>183.4759214988525</v>
       </c>
       <c r="H19" t="n">
-        <v>48.62404813690162</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="I19" t="n">
-        <v>48.62404813690162</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="J19" t="n">
-        <v>97.90358380566107</v>
+        <v>97.90358380566113</v>
       </c>
       <c r="K19" t="n">
-        <v>191.7033952245006</v>
+        <v>191.7033952245007</v>
       </c>
       <c r="L19" t="n">
-        <v>316.594551822448</v>
+        <v>316.5945518224481</v>
       </c>
       <c r="M19" t="n">
-        <v>448.8042364124969</v>
+        <v>448.8042364124971</v>
       </c>
       <c r="N19" t="n">
-        <v>579.147118165886</v>
+        <v>579.1471181658862</v>
       </c>
       <c r="O19" t="n">
-        <v>696.2389891227726</v>
+        <v>696.2389891227729</v>
       </c>
       <c r="P19" t="n">
-        <v>793.3337426628161</v>
+        <v>793.3337426628163</v>
       </c>
       <c r="Q19" t="n">
-        <v>851.5241032894679</v>
+        <v>851.5241032894681</v>
       </c>
       <c r="R19" t="n">
-        <v>851.5241032894679</v>
+        <v>851.5241032894681</v>
       </c>
       <c r="S19" t="n">
-        <v>851.5241032894679</v>
+        <v>851.5241032894681</v>
       </c>
       <c r="T19" t="n">
-        <v>612.483186712761</v>
+        <v>612.4831867127613</v>
       </c>
       <c r="U19" t="n">
-        <v>332.3536118028193</v>
+        <v>612.4831867127613</v>
       </c>
       <c r="V19" t="n">
-        <v>332.3536118028193</v>
+        <v>330.7717193207902</v>
       </c>
       <c r="W19" t="n">
-        <v>332.3536118028193</v>
+        <v>330.7717193207902</v>
       </c>
       <c r="X19" t="n">
-        <v>332.3536118028193</v>
+        <v>183.4759214988525</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.0108434925613</v>
+        <v>183.4759214988525</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1164.49292463877</v>
+        <v>1815.537501742283</v>
       </c>
       <c r="C20" t="n">
-        <v>737.5921946520698</v>
+        <v>1815.537501742283</v>
       </c>
       <c r="D20" t="n">
-        <v>737.5921946520698</v>
+        <v>1576.721413288843</v>
       </c>
       <c r="E20" t="n">
-        <v>737.5921946520698</v>
+        <v>1150.744473436701</v>
       </c>
       <c r="F20" t="n">
-        <v>725.620291626101</v>
+        <v>725.6202916261011</v>
       </c>
       <c r="G20" t="n">
-        <v>323.5239688972858</v>
+        <v>323.5239688972859</v>
       </c>
       <c r="H20" t="n">
-        <v>48.62404813690162</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="I20" t="n">
-        <v>99.16422808906816</v>
+        <v>99.16422808906827</v>
       </c>
       <c r="J20" t="n">
-        <v>256.6002356925471</v>
+        <v>256.6002356925473</v>
       </c>
       <c r="K20" t="n">
-        <v>500.8010092303048</v>
+        <v>500.8010092303043</v>
       </c>
       <c r="L20" t="n">
-        <v>809.7501988153151</v>
+        <v>809.750198815315</v>
       </c>
       <c r="M20" t="n">
         <v>1158.661983949141</v>
@@ -5767,37 +5767,37 @@
         <v>1513.969270404034</v>
       </c>
       <c r="O20" t="n">
-        <v>1847.308885722234</v>
+        <v>1847.308885722235</v>
       </c>
       <c r="P20" t="n">
-        <v>2126.200122672174</v>
+        <v>2126.200122672175</v>
       </c>
       <c r="Q20" t="n">
-        <v>2327.807755589071</v>
+        <v>2327.807755589073</v>
       </c>
       <c r="R20" t="n">
-        <v>2431.202406845081</v>
+        <v>2431.202406845082</v>
       </c>
       <c r="S20" t="n">
-        <v>2377.941543215785</v>
+        <v>2431.202406845082</v>
       </c>
       <c r="T20" t="n">
-        <v>2377.941543215785</v>
+        <v>2431.202406845082</v>
       </c>
       <c r="U20" t="n">
-        <v>2377.941543215785</v>
+        <v>2173.026916616033</v>
       </c>
       <c r="V20" t="n">
-        <v>2377.941543215785</v>
+        <v>1815.537501742283</v>
       </c>
       <c r="W20" t="n">
-        <v>1981.550193516132</v>
+        <v>1815.537501742283</v>
       </c>
       <c r="X20" t="n">
-        <v>1569.830194683879</v>
+        <v>1815.537501742283</v>
       </c>
       <c r="Y20" t="n">
-        <v>1164.49292463877</v>
+        <v>1815.537501742283</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.9583690280599</v>
+        <v>561.17147441133</v>
       </c>
       <c r="C21" t="n">
-        <v>485.4524655455647</v>
+        <v>443.6655709288348</v>
       </c>
       <c r="D21" t="n">
-        <v>381.6125070608497</v>
+        <v>339.8256124441198</v>
       </c>
       <c r="E21" t="n">
-        <v>276.9105733337869</v>
+        <v>235.123678717057</v>
       </c>
       <c r="F21" t="n">
-        <v>183.2647430166911</v>
+        <v>141.4778483999611</v>
       </c>
       <c r="G21" t="n">
-        <v>90.41094275363162</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="H21" t="n">
-        <v>48.62404813690162</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="I21" t="n">
-        <v>73.10602944693835</v>
+        <v>73.10602944693839</v>
       </c>
       <c r="J21" t="n">
-        <v>163.8159369004331</v>
+        <v>163.8159369004332</v>
       </c>
       <c r="K21" t="n">
-        <v>331.553775817742</v>
+        <v>331.5537758177421</v>
       </c>
       <c r="L21" t="n">
-        <v>564.6254133147987</v>
+        <v>564.6254133147989</v>
       </c>
       <c r="M21" t="n">
-        <v>839.7545120729247</v>
+        <v>839.7545120729251</v>
       </c>
       <c r="N21" t="n">
-        <v>1124.506864201803</v>
+        <v>1124.506864201804</v>
       </c>
       <c r="O21" t="n">
-        <v>1381.388918792413</v>
+        <v>1381.388918792414</v>
       </c>
       <c r="P21" t="n">
-        <v>1584.417791458826</v>
+        <v>1584.417791458827</v>
       </c>
       <c r="Q21" t="n">
-        <v>1712.025346683895</v>
+        <v>1712.025346683896</v>
       </c>
       <c r="R21" t="n">
-        <v>1761.610031794463</v>
+        <v>1761.610031794464</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.574729024095</v>
+        <v>1716.495693718743</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.531520629976</v>
+        <v>1579.452485324624</v>
       </c>
       <c r="U21" t="n">
-        <v>1380.842270044306</v>
+        <v>1394.763234738954</v>
       </c>
       <c r="V21" t="n">
-        <v>1231.57699049495</v>
+        <v>1189.79009587822</v>
       </c>
       <c r="W21" t="n">
-        <v>1035.055613328167</v>
+        <v>993.2687187114375</v>
       </c>
       <c r="X21" t="n">
-        <v>871.5782670948303</v>
+        <v>829.7913724781004</v>
       </c>
       <c r="Y21" t="n">
-        <v>731.8853784481227</v>
+        <v>690.0984838313927</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1800.274914813599</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="C22" t="n">
-        <v>1628.302351692515</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="D22" t="n">
-        <v>1628.302351692515</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="E22" t="n">
-        <v>1628.302351692515</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="F22" t="n">
-        <v>1628.302351692515</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="G22" t="n">
-        <v>1628.302351692515</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="H22" t="n">
-        <v>1628.302351692515</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="I22" t="n">
-        <v>1628.302351692515</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="J22" t="n">
-        <v>1677.581887361275</v>
+        <v>97.90358380566113</v>
       </c>
       <c r="K22" t="n">
-        <v>1771.381698780114</v>
+        <v>191.7033952245007</v>
       </c>
       <c r="L22" t="n">
-        <v>1896.272855378061</v>
+        <v>316.5945518224481</v>
       </c>
       <c r="M22" t="n">
-        <v>2028.48253996811</v>
+        <v>448.8042364124971</v>
       </c>
       <c r="N22" t="n">
-        <v>2158.825421721499</v>
+        <v>579.1471181658862</v>
       </c>
       <c r="O22" t="n">
-        <v>2275.917292678386</v>
+        <v>696.2389891227729</v>
       </c>
       <c r="P22" t="n">
-        <v>2373.012046218429</v>
+        <v>793.3337426628163</v>
       </c>
       <c r="Q22" t="n">
-        <v>2431.202406845081</v>
+        <v>851.5241032894681</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.397922686098</v>
+        <v>851.5241032894681</v>
       </c>
       <c r="S22" t="n">
-        <v>2276.794987131622</v>
+        <v>698.9211677349917</v>
       </c>
       <c r="T22" t="n">
-        <v>2037.754070554915</v>
+        <v>698.9211677349917</v>
       </c>
       <c r="U22" t="n">
-        <v>1800.274914813599</v>
+        <v>605.1879193563598</v>
       </c>
       <c r="V22" t="n">
-        <v>1800.274914813599</v>
+        <v>323.4764519643886</v>
       </c>
       <c r="W22" t="n">
-        <v>1800.274914813599</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="X22" t="n">
-        <v>1800.274914813599</v>
+        <v>48.62404813690165</v>
       </c>
       <c r="Y22" t="n">
-        <v>1800.274914813599</v>
+        <v>48.62404813690165</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1702.160847571502</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="C23" t="n">
-        <v>1702.160847571502</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="D23" t="n">
-        <v>1577.589270380385</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="E23" t="n">
-        <v>1151.612330528242</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G23" t="n">
-        <v>324.4553010199517</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H23" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1440473010164</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8602102853082</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230816</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M23" t="n">
         <v>1196.576905080624</v>
@@ -6004,7 +6004,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O23" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
         <v>2194.643812107885</v>
@@ -6016,25 +6016,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U23" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V23" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="W23" t="n">
-        <v>2113.880846403755</v>
+        <v>1593.065891769822</v>
       </c>
       <c r="X23" t="n">
-        <v>1702.160847571502</v>
+        <v>1282.699743475468</v>
       </c>
       <c r="Y23" t="n">
-        <v>1702.160847571502</v>
+        <v>877.3624734303589</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2093.763459081084</v>
+        <v>360.13987071354</v>
       </c>
       <c r="C25" t="n">
-        <v>2093.763459081084</v>
+        <v>360.13987071354</v>
       </c>
       <c r="D25" t="n">
-        <v>1930.446686207855</v>
+        <v>360.13987071354</v>
       </c>
       <c r="E25" t="n">
-        <v>1764.238480360708</v>
+        <v>360.13987071354</v>
       </c>
       <c r="F25" t="n">
-        <v>1679.707041483853</v>
+        <v>284.0866020551252</v>
       </c>
       <c r="G25" t="n">
-        <v>1679.707041483853</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="H25" t="n">
-        <v>1679.707041483853</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I25" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J25" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>1828.00153253975</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L25" t="n">
-        <v>1957.041566136167</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M25" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N25" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O25" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P25" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T25" t="n">
-        <v>2510.272196103408</v>
+        <v>641.8513381055111</v>
       </c>
       <c r="U25" t="n">
-        <v>2510.272196103408</v>
+        <v>641.8513381055111</v>
       </c>
       <c r="V25" t="n">
-        <v>2510.272196103408</v>
+        <v>360.13987071354</v>
       </c>
       <c r="W25" t="n">
-        <v>2510.272196103408</v>
+        <v>360.13987071354</v>
       </c>
       <c r="X25" t="n">
-        <v>2510.272196103408</v>
+        <v>360.13987071354</v>
       </c>
       <c r="Y25" t="n">
-        <v>2283.929427793149</v>
+        <v>360.13987071354</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>726.4881487176426</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="C26" t="n">
-        <v>726.4881487176426</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="D26" t="n">
-        <v>726.4881487176426</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="E26" t="n">
-        <v>726.4881487176426</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F26" t="n">
         <v>726.4881487176426</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199517</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J26" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998221</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N26" t="n">
         <v>1562.984812457614</v>
@@ -6244,34 +6244,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P26" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S26" t="n">
-        <v>2458.457769745855</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T26" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>2200.287357519296</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V26" t="n">
-        <v>1842.797942645546</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W26" t="n">
-        <v>1446.406592945892</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="X26" t="n">
-        <v>1146.336513009173</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="Y26" t="n">
-        <v>1146.336513009173</v>
+        <v>1571.460694819772</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1777999452934</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C27" t="n">
-        <v>486.6718964627981</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D27" t="n">
-        <v>382.8319379780832</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510204</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339246</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662176</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145956</v>
+        <v>75.83346633145955</v>
       </c>
       <c r="J27" t="n">
-        <v>169.6881981570807</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8010428266101</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L27" t="n">
-        <v>583.1000388744363</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M27" t="n">
-        <v>866.6631241688304</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N27" t="n">
         <v>1160.072685361482</v>
@@ -6338,19 +6338,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U27" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V27" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W27" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>872.7976980120637</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y27" t="n">
-        <v>733.1048093653561</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.20544392206816</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="C28" t="n">
-        <v>50.20544392206816</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="D28" t="n">
-        <v>50.20544392206816</v>
+        <v>516.2348560014422</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206816</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206816</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H28" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I28" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J28" t="n">
         <v>101.4579413382349</v>
@@ -6414,22 +6414,22 @@
         <v>880.7705985416227</v>
       </c>
       <c r="T28" t="n">
-        <v>641.8513381055111</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="U28" t="n">
-        <v>641.8513381055111</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="V28" t="n">
-        <v>360.13987071354</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="W28" t="n">
-        <v>360.13987071354</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="X28" t="n">
-        <v>360.13987071354</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="Y28" t="n">
-        <v>240.3714126341338</v>
+        <v>679.5516288746715</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>324.4553010199517</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="C29" t="n">
-        <v>324.4553010199517</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="D29" t="n">
-        <v>324.4553010199517</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="E29" t="n">
-        <v>324.4553010199517</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F29" t="n">
-        <v>324.4553010199517</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G29" t="n">
         <v>324.4553010199517</v>
@@ -6466,10 +6466,10 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230812</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M29" t="n">
         <v>1196.576905080624</v>
@@ -6490,25 +6490,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S29" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T29" t="n">
-        <v>2315.241698762248</v>
+        <v>2299.442080053588</v>
       </c>
       <c r="U29" t="n">
-        <v>2315.241698762248</v>
+        <v>2041.271667827029</v>
       </c>
       <c r="V29" t="n">
-        <v>1957.752283888497</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="W29" t="n">
-        <v>1561.360934188844</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="X29" t="n">
-        <v>1149.640935356591</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="Y29" t="n">
-        <v>744.3036653114817</v>
+        <v>1287.390903253625</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C30" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D30" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F30" t="n">
         <v>184.4841739339245</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H30" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145931</v>
       </c>
       <c r="J30" t="n">
         <v>169.6881981570806</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1679.707041483853</v>
+        <v>528.6385063209636</v>
       </c>
       <c r="C31" t="n">
-        <v>1679.707041483853</v>
+        <v>356.6659431998796</v>
       </c>
       <c r="D31" t="n">
-        <v>1679.707041483853</v>
+        <v>356.6659431998796</v>
       </c>
       <c r="E31" t="n">
-        <v>1679.707041483853</v>
+        <v>356.6659431998796</v>
       </c>
       <c r="F31" t="n">
-        <v>1679.707041483853</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.707041483853</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H31" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I31" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J31" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K31" t="n">
-        <v>1828.00153253975</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L31" t="n">
-        <v>1957.041566136167</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M31" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N31" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O31" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P31" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="U31" t="n">
-        <v>2236.270912703311</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="V31" t="n">
-        <v>1954.55944531134</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="W31" t="n">
-        <v>1679.707041483853</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="X31" t="n">
-        <v>1679.707041483853</v>
+        <v>638.2067019874278</v>
       </c>
       <c r="Y31" t="n">
-        <v>1679.707041483853</v>
+        <v>528.6385063209636</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1751.49991638651</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="C32" t="n">
-        <v>1324.59918639981</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="D32" t="n">
-        <v>901.3065655848104</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="E32" t="n">
-        <v>475.329625732668</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F32" t="n">
-        <v>50.20544392206816</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G32" t="n">
         <v>50.20544392206816</v>
@@ -6697,10 +6697,10 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1440473010157</v>
+        <v>103.1440473010163</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
         <v>517.9745679998225</v>
@@ -6718,34 +6718,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q32" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R32" t="n">
         <v>2510.272196103408</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V32" t="n">
-        <v>2510.272196103408</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W32" t="n">
-        <v>2156.83718643162</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X32" t="n">
-        <v>2156.83718643162</v>
+        <v>857.5755616648688</v>
       </c>
       <c r="Y32" t="n">
-        <v>1751.49991638651</v>
+        <v>452.2382916197591</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C33" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D33" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E33" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F33" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339249</v>
       </c>
       <c r="G33" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662206</v>
       </c>
       <c r="H33" t="n">
         <v>50.20544392206816</v>
@@ -6812,19 +6812,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U33" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V33" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W33" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X33" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y33" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.20544392206816</v>
+        <v>184.1338396664713</v>
       </c>
       <c r="C34" t="n">
-        <v>50.20544392206816</v>
+        <v>184.1338396664713</v>
       </c>
       <c r="D34" t="n">
-        <v>50.20544392206816</v>
+        <v>184.1338396664713</v>
       </c>
       <c r="E34" t="n">
-        <v>50.20544392206816</v>
+        <v>184.1338396664713</v>
       </c>
       <c r="F34" t="n">
         <v>50.20544392206816</v>
@@ -6891,19 +6891,19 @@
         <v>880.7705985416227</v>
       </c>
       <c r="U34" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="V34" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="W34" t="n">
-        <v>605.9181947141358</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="X34" t="n">
-        <v>363.3542981599409</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.0115298496829</v>
+        <v>374.2998083785369</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.6713720035585</v>
+        <v>1416.059290572251</v>
       </c>
       <c r="C35" t="n">
-        <v>452.2382916197591</v>
+        <v>989.1585605855514</v>
       </c>
       <c r="D35" t="n">
-        <v>452.2382916197591</v>
+        <v>878.2152314719015</v>
       </c>
       <c r="E35" t="n">
         <v>452.2382916197591</v>
@@ -6928,25 +6928,25 @@
         <v>452.2382916197591</v>
       </c>
       <c r="G35" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H35" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I35" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J35" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998221</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N35" t="n">
         <v>1562.984812457614</v>
@@ -6955,34 +6955,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P35" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q35" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R35" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S35" t="n">
-        <v>2458.457769745855</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T35" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U35" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V35" t="n">
-        <v>2100.968354872104</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.577005172451</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="X35" t="n">
-        <v>1292.857006340198</v>
+        <v>1835.907654863781</v>
       </c>
       <c r="Y35" t="n">
-        <v>887.5197362950886</v>
+        <v>1835.907654863781</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>604.1777999452937</v>
       </c>
       <c r="C36" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339249</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662206</v>
       </c>
       <c r="H36" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J36" t="n">
         <v>169.6881981570806</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="C37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J37" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K37" t="n">
-        <v>1828.00153253975</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L37" t="n">
-        <v>1957.041566136167</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M37" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N37" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O37" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P37" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q37" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R37" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S37" t="n">
-        <v>2358.165462296849</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T37" t="n">
-        <v>2358.165462296849</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="U37" t="n">
-        <v>2236.270912703311</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="V37" t="n">
-        <v>1954.55944531134</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="W37" t="n">
-        <v>1679.707041483853</v>
+        <v>605.9181947141358</v>
       </c>
       <c r="X37" t="n">
-        <v>1679.707041483853</v>
+        <v>363.3542981599409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1679.707041483853</v>
+        <v>240.3714126341338</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1300.655094245359</v>
+        <v>1681.119990580574</v>
       </c>
       <c r="C38" t="n">
-        <v>1300.655094245359</v>
+        <v>1681.119990580574</v>
       </c>
       <c r="D38" t="n">
-        <v>877.3624734303589</v>
+        <v>1257.827369765574</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3624734303589</v>
+        <v>831.8504299134319</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2382916197591</v>
+        <v>406.7262481028321</v>
       </c>
       <c r="G38" t="n">
         <v>50.20544392206816</v>
@@ -7171,16 +7171,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I38" t="n">
-        <v>103.1440473010165</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853083</v>
+        <v>265.860210285308</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230816</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080624</v>
@@ -7189,7 +7189,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O38" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P38" t="n">
         <v>2194.643812107885</v>
@@ -7201,25 +7201,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U38" t="n">
-        <v>2252.101783876849</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V38" t="n">
-        <v>1894.612369003098</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="W38" t="n">
-        <v>1498.221019303445</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="X38" t="n">
-        <v>1300.655094245359</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="Y38" t="n">
-        <v>1300.655094245359</v>
+        <v>2100.968354872104</v>
       </c>
     </row>
     <row r="39">
@@ -7235,22 +7235,22 @@
         <v>486.6718964627985</v>
       </c>
       <c r="D39" t="n">
-        <v>382.8319379780835</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H39" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145936</v>
       </c>
       <c r="J39" t="n">
         <v>169.6881981570806</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>209.0923350347668</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="C40" t="n">
-        <v>209.0923350347668</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="D40" t="n">
-        <v>209.0923350347668</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="E40" t="n">
-        <v>209.0923350347668</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="F40" t="n">
-        <v>209.0923350347668</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G40" t="n">
-        <v>209.0923350347668</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I40" t="n">
         <v>50.20544392206816</v>
@@ -7356,28 +7356,28 @@
         <v>880.7705985416227</v>
       </c>
       <c r="R40" t="n">
-        <v>880.2463511302653</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1396173237061</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T40" t="n">
-        <v>489.2203568875946</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="U40" t="n">
-        <v>209.0923350347668</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="V40" t="n">
-        <v>209.0923350347668</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="W40" t="n">
-        <v>209.0923350347668</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="X40" t="n">
-        <v>209.0923350347668</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.0923350347668</v>
+        <v>851.4134031001111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1030.524799840556</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="C41" t="n">
-        <v>603.6240698538561</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="D41" t="n">
-        <v>603.6240698538561</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="E41" t="n">
-        <v>177.6471300017137</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F41" t="n">
-        <v>50.20544392206816</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H41" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J41" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230818</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080624</v>
       </c>
       <c r="N41" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457615</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P41" t="n">
         <v>2194.643812107885</v>
@@ -7438,25 +7438,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S41" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696035</v>
       </c>
       <c r="U41" t="n">
-        <v>2252.101783876849</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V41" t="n">
-        <v>2252.101783876849</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W41" t="n">
-        <v>1855.710434177196</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X41" t="n">
-        <v>1855.710434177196</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1450.373164132086</v>
+        <v>1151.612330528242</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452934</v>
       </c>
       <c r="C42" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627981</v>
       </c>
       <c r="D42" t="n">
         <v>382.8319379780831</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F42" t="n">
         <v>184.4841739339245</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H42" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145931</v>
       </c>
       <c r="J42" t="n">
         <v>169.6881981570806</v>
@@ -7532,10 +7532,10 @@
         <v>1036.275044245401</v>
       </c>
       <c r="X42" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120637</v>
       </c>
       <c r="Y42" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653561</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>723.5647599889675</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="C43" t="n">
-        <v>551.5921968678834</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="D43" t="n">
-        <v>388.2754239946541</v>
+        <v>717.4538256683934</v>
       </c>
       <c r="E43" t="n">
-        <v>222.0672181475077</v>
+        <v>551.2456198212469</v>
       </c>
       <c r="F43" t="n">
-        <v>50.20544392206816</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206816</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I43" t="n">
         <v>50.20544392206816</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2113.880846403755</v>
+        <v>1077.865096017294</v>
       </c>
       <c r="C44" t="n">
-        <v>1686.980116417055</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.687495602055</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="E44" t="n">
-        <v>837.7105557499127</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F44" t="n">
-        <v>412.5863739393129</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G44" t="n">
         <v>50.20544392206816</v>
@@ -7645,16 +7645,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010159</v>
       </c>
       <c r="J44" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853076</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998224</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230811</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M44" t="n">
         <v>1196.576905080624</v>
@@ -7663,7 +7663,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
         <v>2194.643812107885</v>
@@ -7678,22 +7678,22 @@
         <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2510.272196103408</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2510.272196103408</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="V44" t="n">
-        <v>2510.272196103408</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="W44" t="n">
-        <v>2113.880846403755</v>
+        <v>1903.050730353934</v>
       </c>
       <c r="X44" t="n">
-        <v>2113.880846403755</v>
+        <v>1903.050730353934</v>
       </c>
       <c r="Y44" t="n">
-        <v>2113.880846403755</v>
+        <v>1497.713460308824</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1296.682631392848</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C45" t="n">
-        <v>1179.176727910353</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>1075.336769425638</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E45" t="n">
-        <v>970.6348356985753</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F45" t="n">
-        <v>876.9890053814795</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
-        <v>784.1691672541767</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H45" t="n">
-        <v>742.7102753696232</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
-        <v>768.3382977790144</v>
+        <v>75.83346633145929</v>
       </c>
       <c r="J45" t="n">
-        <v>862.1930296046357</v>
+        <v>169.6881981570806</v>
       </c>
       <c r="K45" t="n">
-        <v>1035.305874274165</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L45" t="n">
-        <v>1275.604870321991</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M45" t="n">
-        <v>1559.167955616385</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N45" t="n">
-        <v>1852.577516809037</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O45" t="n">
-        <v>2117.379226369924</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P45" t="n">
-        <v>2326.7643203591</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q45" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R45" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S45" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T45" t="n">
-        <v>2314.961407955106</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U45" t="n">
-        <v>2130.274391720472</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V45" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W45" t="n">
-        <v>1728.779875692956</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X45" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1425.609640812911</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184.1338396664713</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="C46" t="n">
-        <v>184.1338396664713</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="D46" t="n">
-        <v>184.1338396664713</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="E46" t="n">
-        <v>184.1338396664713</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="F46" t="n">
-        <v>50.20544392206816</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H46" t="n">
         <v>50.20544392206816</v>
@@ -7839,19 +7839,19 @@
         <v>880.7705985416227</v>
       </c>
       <c r="U46" t="n">
-        <v>600.6425766887949</v>
+        <v>878.2625989389473</v>
       </c>
       <c r="V46" t="n">
-        <v>600.6425766887949</v>
+        <v>878.2625989389473</v>
       </c>
       <c r="W46" t="n">
-        <v>600.6425766887949</v>
+        <v>878.2625989389473</v>
       </c>
       <c r="X46" t="n">
-        <v>600.6425766887949</v>
+        <v>878.2625989389473</v>
       </c>
       <c r="Y46" t="n">
-        <v>374.2998083785369</v>
+        <v>878.2625989389473</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.021643902788007</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.536891551628983</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.888458418784966</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.504190801070983</v>
       </c>
       <c r="R3" t="n">
         <v>13.34053384443212</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.77286693432815</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.755254677277751</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.176308884163522</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.7054336060544593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.779019446119921</v>
+        <v>2.779019446119925</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.506790124936625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12.9368725197517</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.021643902788007</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.536891551628983</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.888458418784966</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.504190801070983</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10.77286693432815</v>
       </c>
       <c r="K7" t="n">
-        <v>4.755254677277748</v>
+        <v>4.755254677277751</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.176308884163522</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.7054336060544593</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2.779019446119925</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.506790124936625</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>12.9368725197517</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.03700156004394</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4.311953536506707</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.898663481595429</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5.146189892547309</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.95007526762636</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.671637333691503</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.898663481595431</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>5.146189892547312</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.950075267626364</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.671637333691507</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>404.4134154165328</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22558,16 +22558,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>410.3847904032304</v>
+        <v>402.6546327221936</v>
       </c>
       <c r="G2" t="n">
         <v>381.7663341259155</v>
       </c>
       <c r="H2" t="n">
-        <v>273.4860474864606</v>
+        <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
-        <v>4.338596154314477</v>
+        <v>22.55690342461459</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.49488714450009</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>96.23601616822083</v>
@@ -22609,7 +22609,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>376.3807511589762</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>109.419432055562</v>
       </c>
       <c r="C3" t="n">
         <v>116.3308444476703</v>
@@ -22646,10 +22646,10 @@
         <v>51.2351047706663</v>
       </c>
       <c r="I3" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784962</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.20159478341716</v>
+        <v>77.41990205371728</v>
       </c>
       <c r="T3" t="n">
-        <v>121.5720560939171</v>
+        <v>139.7903633642173</v>
       </c>
       <c r="U3" t="n">
-        <v>164.691258432811</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V3" t="n">
-        <v>188.380913229517</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>145.7958877273234</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>120.0776524899404</v>
       </c>
     </row>
     <row r="4">
@@ -22728,16 +22728,16 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J4" t="n">
-        <v>10.77286693432814</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.166130835347158</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176308884163518</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7054336060544557</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.506790124936622</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.9368725197517</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>40.29501189884586</v>
@@ -22767,7 +22767,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5147559472815</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>397.4315733783146</v>
       </c>
       <c r="C5" t="n">
-        <v>404.4134154165328</v>
+        <v>406.5850376431525</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -22837,13 +22837,13 @@
         <v>96.23601616822083</v>
       </c>
       <c r="T5" t="n">
-        <v>204.1432099975172</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U5" t="n">
-        <v>237.5281706080333</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>335.6962134547129</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>383.0655900743585</v>
       </c>
     </row>
     <row r="6">
@@ -22868,16 +22868,16 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>84.58325162956771</v>
       </c>
       <c r="E6" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>74.49106474362478</v>
       </c>
       <c r="G6" t="n">
-        <v>92.94681813455406</v>
+        <v>76.90013309087375</v>
       </c>
       <c r="H6" t="n">
         <v>51.2351047706663</v>
@@ -22907,22 +22907,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.50419080107098</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>59.20159478341716</v>
+        <v>77.41990205371728</v>
       </c>
       <c r="T6" t="n">
-        <v>121.5720560939172</v>
+        <v>139.7903633642173</v>
       </c>
       <c r="U6" t="n">
-        <v>177.3162811276063</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22965,28 +22965,28 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77286693432814</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163518</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7054336060544557</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.189895604189331</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936622</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.9368725197517</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>40.29501189884586</v>
@@ -22998,7 +22998,7 @@
         <v>240.3098339603297</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3749939678559</v>
+        <v>276.7858701259253</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -23038,13 +23038,13 @@
         <v>399.9626175572692</v>
       </c>
       <c r="H8" t="n">
-        <v>291.4788031161503</v>
+        <v>267.969090157106</v>
       </c>
       <c r="I8" t="n">
-        <v>21.70782937363143</v>
+        <v>21.70782937363144</v>
       </c>
       <c r="J8" t="n">
-        <v>1.152398102006437</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.11143217127992</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.73414793822852</v>
+        <v>75.02679276390222</v>
       </c>
       <c r="T8" t="n">
         <v>193.7486573985481</v>
       </c>
       <c r="U8" t="n">
-        <v>235.1959255104915</v>
+        <v>232.2350030121733</v>
       </c>
       <c r="V8" t="n">
-        <v>330.4048077659686</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>368.9177232436122</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -23111,7 +23111,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G9" t="n">
         <v>92.93503434185737</v>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.775148425455178</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.60890503121191</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>53.69131031366217</v>
+        <v>77.20102327270656</v>
       </c>
       <c r="T9" t="n">
         <v>116.233153451277</v>
       </c>
       <c r="U9" t="n">
-        <v>162.2014352792653</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W9" t="n">
-        <v>194.556163395115</v>
+        <v>173.8488082207887</v>
       </c>
       <c r="X9" t="n">
-        <v>138.3328598119593</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
         <v>138.2959597602405</v>
@@ -23196,16 +23196,16 @@
         <v>164.4450033473029</v>
       </c>
       <c r="H10" t="n">
-        <v>141.0300336718695</v>
+        <v>137.8462006436736</v>
       </c>
       <c r="I10" t="n">
         <v>94.27811752316894</v>
       </c>
       <c r="J10" t="n">
-        <v>10.07441202240545</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4236456719219817</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,13 +23217,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.382648484235649</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.311953536506703</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.10962959912422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>39.85081002223924</v>
@@ -23266,10 +23266,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>333.6234899856193</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>332.779259524492</v>
       </c>
       <c r="G11" t="n">
         <v>399.7379713523258</v>
@@ -23278,7 +23278,7 @@
         <v>289.1781451697731</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13.0471565575485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.521342075077797</v>
+        <v>90.61502254307931</v>
       </c>
       <c r="T11" t="n">
-        <v>216.2749815954525</v>
+        <v>138.6820678392366</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7267442748222</v>
+        <v>167.6330638068205</v>
       </c>
       <c r="V11" t="n">
-        <v>289.3687635263458</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>304.333755734655</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>319.5091183759287</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23339,22 +23339,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>28.23716397966855</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8015588998678</v>
+        <v>14.70787843186611</v>
       </c>
       <c r="E12" t="n">
-        <v>63.68282672516334</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>4.615691545923355</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>4.721157557692002</v>
+        <v>92.81483802569352</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>182.9008828012124</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>190.0396921294221</v>
       </c>
       <c r="W12" t="n">
-        <v>194.556163395115</v>
+        <v>106.4624829271133</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -23436,10 +23436,10 @@
         <v>140.1341096206706</v>
       </c>
       <c r="I13" t="n">
-        <v>91.24773228659839</v>
+        <v>91.24773228659838</v>
       </c>
       <c r="J13" t="n">
-        <v>2.950075267626378</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.671637333691525</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.31988941157481</v>
+        <v>35.3198894115748</v>
       </c>
       <c r="S13" t="n">
         <v>164.0739995734861</v>
       </c>
       <c r="T13" t="n">
-        <v>163.1125373464967</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U13" t="n">
         <v>277.368958639323</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>202.1698235059605</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -23503,19 +23503,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>344.1242566974053</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>332.7792595244922</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>311.6442908843242</v>
+        <v>335.1922141536584</v>
       </c>
       <c r="H14" t="n">
-        <v>201.0844647017716</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I14" t="n">
-        <v>13.04715655754853</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.61502254307932</v>
+        <v>2.521342075077655</v>
       </c>
       <c r="T14" t="n">
         <v>216.2749815954525</v>
@@ -23554,10 +23554,10 @@
         <v>255.7267442748222</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>265.8208402570114</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>304.3337557346549</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>114.7540239831577</v>
       </c>
       <c r="C15" t="n">
         <v>116.3308444476703</v>
@@ -23594,7 +23594,7 @@
         <v>49.96045477193429</v>
       </c>
       <c r="I15" t="n">
-        <v>5.89866348159544</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.146189892547326</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.08471407494117</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T15" t="n">
-        <v>51.16471043988754</v>
+        <v>139.2583909078891</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9008828012124</v>
+        <v>94.80720233321074</v>
       </c>
       <c r="V15" t="n">
-        <v>202.9234074721264</v>
+        <v>114.8297270041247</v>
       </c>
       <c r="W15" t="n">
-        <v>194.556163395115</v>
+        <v>106.4624829271133</v>
       </c>
       <c r="X15" t="n">
-        <v>73.74889230300219</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.202279292239</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>164.3442347934871</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1341096206706</v>
+        <v>63.4095804085797</v>
       </c>
       <c r="I16" t="n">
-        <v>14.52320307450771</v>
+        <v>91.24773228659838</v>
       </c>
       <c r="J16" t="n">
-        <v>2.950075267626378</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.671637333691525</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>35.31988941157481</v>
@@ -23734,10 +23734,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.075359501527</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.72825499300279</v>
+        <v>52.72825499300278</v>
       </c>
       <c r="T17" t="n">
-        <v>41.28617261149717</v>
+        <v>208.9968982185809</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>239.5285829999933</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>55.15078071826373</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>13.78175504770082</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>41.3690256705627</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.4513816228419</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23907,7 +23907,7 @@
         <v>163.5984443546759</v>
       </c>
       <c r="H19" t="n">
-        <v>133.5033546283313</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>68.81977981762275</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.786439317392997</v>
+        <v>1.786439317392983</v>
       </c>
       <c r="S19" t="n">
         <v>151.0769061989316</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3282791608423</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>94.31541774493465</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>182.6317670379448</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>409.0207559967846</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.72825499300278</v>
       </c>
       <c r="T20" t="n">
         <v>208.9968982185809</v>
       </c>
       <c r="U20" t="n">
-        <v>255.5937353267583</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.36902567056269</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>13.78175504770095</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>55.15078071826406</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24147,7 +24147,7 @@
         <v>133.5033546283313</v>
       </c>
       <c r="I22" t="n">
-        <v>68.81977981762276</v>
+        <v>68.81977981762275</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.786439317392983</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>236.6505074109398</v>
       </c>
       <c r="U22" t="n">
-        <v>42.22391497693957</v>
+        <v>184.5323632659967</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24211,10 +24211,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>295.7338331876436</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>100.3403120325198</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>86.45703199509877</v>
+        <v>94.85042051135451</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -24432,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>110.5334197065776</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>341.381836886466</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>67.97209018366931</v>
@@ -24654,13 +24654,13 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3267416342995</v>
+        <v>78.11996166401778</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -24669,7 +24669,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.5085671285432</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24688,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>287.2963834554922</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T29" t="n">
-        <v>66.93790461555116</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>67.97209018366931</v>
@@ -24894,19 +24894,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
-        <v>6.065471068204165</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>115.6068269173559</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>42.5267766275864</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>33.3818927650392</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.3262839566064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>37.55404469622613</v>
       </c>
       <c r="G34" t="n">
         <v>163.5702563680571</v>
@@ -25131,16 +25131,16 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>407.3529731068714</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>309.2257987843362</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25362,25 +25362,25 @@
         <v>0.5190049372437358</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>156.6511375366976</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>102.3262839566064</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>45.05692308175776</v>
       </c>
       <c r="H38" t="n">
         <v>271.5073585269046</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>212.0125330364245</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25554,22 +25554,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>43.92680578394579</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.5190049372437358</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.466444344654</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>294.7056707736447</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>324.4782939397786</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.63052885781633</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>38.90846669657284</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>224.1341263257669</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>39.25539850364174</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>271.5073585269046</v>
@@ -25918,7 +25918,7 @@
         <v>51.29628209397735</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.5887081042933</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>37.55404469622613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>67.97209018366931</v>
@@ -26079,7 +26079,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>274.8438220276509</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61592.96735277592</v>
+        <v>67280.74130453603</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>60686.10162122766</v>
+        <v>67280.74130453604</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65811.65233395711</v>
+        <v>70498.10586049552</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>109112.011902253</v>
+        <v>110209.6519518699</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>109112.011902253</v>
+        <v>110209.6519518698</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>431326.5827499134</v>
+        <v>431326.5827499135</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>431326.5827499133</v>
+        <v>431326.5827499136</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>443503.415296834</v>
+        <v>443503.4152968338</v>
       </c>
     </row>
     <row r="11">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21222.14419280978</v>
+        <v>22684.7146375481</v>
       </c>
       <c r="C2" t="n">
-        <v>20988.95014755452</v>
+        <v>22684.7146375481</v>
       </c>
       <c r="D2" t="n">
-        <v>22714.66604222013</v>
+        <v>23919.75409190144</v>
       </c>
       <c r="E2" t="n">
-        <v>37769.54258154909</v>
+        <v>38051.79288002203</v>
       </c>
       <c r="F2" t="n">
-        <v>37769.5425815491</v>
+        <v>38051.79288002202</v>
       </c>
       <c r="G2" t="n">
         <v>149305.3555672777</v>
       </c>
       <c r="H2" t="n">
-        <v>149305.3555672776</v>
+        <v>149305.3555672778</v>
       </c>
       <c r="I2" t="n">
-        <v>153520.4129873655</v>
+        <v>153520.4129873656</v>
       </c>
       <c r="J2" t="n">
         <v>153520.4129873656</v>
       </c>
       <c r="K2" t="n">
-        <v>153520.4129873655</v>
+        <v>153520.4129873656</v>
       </c>
       <c r="L2" t="n">
-        <v>153520.4129873655</v>
+        <v>153520.4129873656</v>
       </c>
       <c r="M2" t="n">
         <v>153520.4129873656</v>
@@ -26355,7 +26355,7 @@
         <v>153520.4129873656</v>
       </c>
       <c r="P2" t="n">
-        <v>153520.4129873655</v>
+        <v>153520.4129873656</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957299</v>
+        <v>6335.473445957301</v>
       </c>
       <c r="E3" t="n">
-        <v>64178.10880470016</v>
+        <v>64178.10880470034</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17023.19029458346</v>
+        <v>17023.1902945832</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.7107874304</v>
+        <v>4766.710787430368</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169971</v>
+        <v>1339.20715716995</v>
       </c>
       <c r="M3" t="n">
-        <v>16094.58303910215</v>
+        <v>16094.58303910217</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.7735307078232</v>
+        <v>1760.34397544615</v>
       </c>
       <c r="C4" t="n">
-        <v>64.57948545256289</v>
+        <v>1760.34397544615</v>
       </c>
       <c r="D4" t="n">
-        <v>208.6582154573352</v>
+        <v>1413.74626513863</v>
       </c>
       <c r="E4" t="n">
-        <v>62.45231285262346</v>
+        <v>344.7026113254999</v>
       </c>
       <c r="F4" t="n">
-        <v>62.45231285262346</v>
+        <v>344.7026113255001</v>
       </c>
       <c r="G4" t="n">
         <v>426.5961278544141</v>
       </c>
       <c r="H4" t="n">
-        <v>426.5961278544139</v>
+        <v>426.5961278544142</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539643</v>
@@ -26478,16 +26478,16 @@
         <v>36863.06036917747</v>
       </c>
       <c r="E5" t="n">
-        <v>8380.365801579239</v>
+        <v>8380.365801579253</v>
       </c>
       <c r="F5" t="n">
-        <v>8380.365801579239</v>
+        <v>8380.36580157925</v>
       </c>
       <c r="G5" t="n">
-        <v>48994.4750270889</v>
+        <v>48994.47502708892</v>
       </c>
       <c r="H5" t="n">
-        <v>48994.47502708889</v>
+        <v>48994.47502708892</v>
       </c>
       <c r="I5" t="n">
         <v>50537.10295659397</v>
@@ -26496,7 +26496,7 @@
         <v>50537.10295659397</v>
       </c>
       <c r="K5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659398</v>
       </c>
       <c r="L5" t="n">
         <v>50537.10295659397</v>
@@ -26508,10 +26508,10 @@
         <v>50537.10295659397</v>
       </c>
       <c r="O5" t="n">
+        <v>50537.10295659398</v>
+      </c>
+      <c r="P5" t="n">
         <v>50537.10295659397</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50537.10295659398</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96156.50695183963</v>
+        <v>-97486.58742943675</v>
       </c>
       <c r="C6" t="n">
-        <v>-15497.54246855298</v>
+        <v>-16827.62294615008</v>
       </c>
       <c r="D6" t="n">
-        <v>-20692.52598837198</v>
+        <v>-22015.74513566709</v>
       </c>
       <c r="E6" t="n">
-        <v>-34851.38433758293</v>
+        <v>-36096.09215827751</v>
       </c>
       <c r="F6" t="n">
-        <v>29326.72446711724</v>
+        <v>28082.01664642282</v>
       </c>
       <c r="G6" t="n">
-        <v>-364108.5382320665</v>
+        <v>-364735.1707044985</v>
       </c>
       <c r="H6" t="n">
-        <v>99884.28441233428</v>
+        <v>99257.65193990248</v>
       </c>
       <c r="I6" t="n">
-        <v>85519.66594433412</v>
+        <v>84916.45045756971</v>
       </c>
       <c r="J6" t="n">
-        <v>97776.14545148726</v>
+        <v>97172.92996472257</v>
       </c>
       <c r="K6" t="n">
-        <v>102542.8562389176</v>
+        <v>101939.6407521529</v>
       </c>
       <c r="L6" t="n">
-        <v>101203.6490817476</v>
+        <v>100600.4335949829</v>
       </c>
       <c r="M6" t="n">
-        <v>86448.27319981551</v>
+        <v>85845.05771305072</v>
       </c>
       <c r="N6" t="n">
-        <v>102542.8562389177</v>
+        <v>101939.6407521529</v>
       </c>
       <c r="O6" t="n">
-        <v>-22525.13406519618</v>
+        <v>-23128.34955196108</v>
       </c>
       <c r="P6" t="n">
-        <v>102542.8562389176</v>
+        <v>101939.6407521529</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975661</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975661</v>
       </c>
       <c r="D3" t="n">
-        <v>82.84723950768695</v>
+        <v>82.84723950768694</v>
       </c>
       <c r="E3" t="n">
-        <v>138.7279829873737</v>
+        <v>138.7279829873738</v>
       </c>
       <c r="F3" t="n">
-        <v>138.7279829873737</v>
+        <v>138.7279829873738</v>
       </c>
       <c r="G3" t="n">
-        <v>552.3026808735628</v>
+        <v>552.302680873563</v>
       </c>
       <c r="H3" t="n">
-        <v>552.3026808735627</v>
+        <v>552.302680873563</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257878</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="D4" t="n">
-        <v>23.50971295904439</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E4" t="n">
-        <v>88.09368046800152</v>
+        <v>88.09368046800171</v>
       </c>
       <c r="F4" t="n">
-        <v>88.09368046800152</v>
+        <v>88.09368046800165</v>
       </c>
       <c r="G4" t="n">
-        <v>607.8006017112702</v>
+        <v>607.8006017112706</v>
       </c>
       <c r="H4" t="n">
-        <v>607.8006017112702</v>
+        <v>607.8006017112706</v>
       </c>
       <c r="I4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="J4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="K4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.568049025852</v>
       </c>
       <c r="L4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="M4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="N4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="O4" t="n">
+        <v>627.568049025852</v>
+      </c>
+      <c r="P4" t="n">
         <v>627.5680490258519</v>
-      </c>
-      <c r="P4" t="n">
-        <v>627.568049025852</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975661</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>5.478429937930329</v>
       </c>
       <c r="E3" t="n">
-        <v>55.88074347968673</v>
+        <v>55.88074347968688</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.6315198522251</v>
+        <v>15.63151985222487</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.291405688744277</v>
+        <v>5.29140568874428</v>
       </c>
       <c r="E4" t="n">
-        <v>64.58396750895713</v>
+        <v>64.58396750895733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>519.7069212432688</v>
+        <v>519.7069212432689</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.76744731458166</v>
+        <v>19.76744731458132</v>
       </c>
       <c r="J4" t="n">
-        <v>18.2183072703001</v>
+        <v>18.21830727029998</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744248</v>
+        <v>5.291405688744167</v>
       </c>
       <c r="M4" t="n">
-        <v>64.58396750895713</v>
+        <v>64.58396750895722</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>519.7069212432688</v>
+        <v>519.706921243269</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744277</v>
+        <v>5.29140568874428</v>
       </c>
       <c r="M4" t="n">
-        <v>64.58396750895713</v>
+        <v>64.58396750895733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>519.7069212432688</v>
+        <v>519.7069212432689</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>3.185339983944802</v>
       </c>
       <c r="I2" t="n">
-        <v>11.99099911934892</v>
+        <v>11.99099911934891</v>
       </c>
       <c r="J2" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K2" t="n">
-        <v>39.56423200124193</v>
+        <v>39.56423200124192</v>
       </c>
       <c r="L2" t="n">
-        <v>49.08292830624872</v>
+        <v>49.08292830624871</v>
       </c>
       <c r="M2" t="n">
-        <v>54.61421500850463</v>
+        <v>54.61421500850462</v>
       </c>
       <c r="N2" t="n">
         <v>55.49793010474612</v>
       </c>
       <c r="O2" t="n">
-        <v>52.4051216618948</v>
+        <v>52.40512166189479</v>
       </c>
       <c r="P2" t="n">
         <v>44.72655890308729</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.58778305296907</v>
+        <v>33.58778305296906</v>
       </c>
       <c r="R2" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S2" t="n">
-        <v>7.087605017370168</v>
+        <v>7.087605017370167</v>
       </c>
       <c r="T2" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02488243121841417</v>
+        <v>0.02488243121841416</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1664159300179671</v>
+        <v>0.166415930017967</v>
       </c>
       <c r="H3" t="n">
-        <v>1.607227534647209</v>
+        <v>1.607227534647208</v>
       </c>
       <c r="I3" t="n">
-        <v>5.729671274741411</v>
+        <v>5.72967127474141</v>
       </c>
       <c r="J3" t="n">
         <v>15.72265591454837</v>
       </c>
       <c r="K3" t="n">
-        <v>26.87252322575217</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>36.13342375236606</v>
+        <v>31.78561213073773</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31508778262809</v>
+        <v>41.31508778262807</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384177</v>
+        <v>39.56133548384176</v>
       </c>
       <c r="O3" t="n">
-        <v>39.59458313896781</v>
+        <v>39.5945831389678</v>
       </c>
       <c r="P3" t="n">
-        <v>22.95704267508555</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.24284748790752</v>
+        <v>21.24284748790751</v>
       </c>
       <c r="R3" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S3" t="n">
-        <v>3.091102910640746</v>
+        <v>3.091102910640745</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6707729810811917</v>
+        <v>0.6707729810811914</v>
       </c>
       <c r="U3" t="n">
         <v>0.01094841644855047</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1395175254536595</v>
+        <v>0.1395175254536594</v>
       </c>
       <c r="H4" t="n">
         <v>1.240437635397082</v>
       </c>
       <c r="I4" t="n">
-        <v>4.195672492733688</v>
+        <v>4.195672492733687</v>
       </c>
       <c r="J4" t="n">
-        <v>9.863889049573723</v>
+        <v>9.863889049573721</v>
       </c>
       <c r="K4" t="n">
         <v>16.20939977543425</v>
@@ -31220,7 +31220,7 @@
         <v>21.87000628543136</v>
       </c>
       <c r="N4" t="n">
-        <v>21.34998641783138</v>
+        <v>21.34998641783137</v>
       </c>
       <c r="O4" t="n">
         <v>19.72016805230453</v>
@@ -31232,16 +31232,16 @@
         <v>11.68269024503325</v>
       </c>
       <c r="R4" t="n">
-        <v>6.273215280852723</v>
+        <v>6.273215280852722</v>
       </c>
       <c r="S4" t="n">
         <v>2.431409966315137</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5961203360292721</v>
+        <v>0.5961203360292719</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007610046842926889</v>
+        <v>0.007610046842926888</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>3.185339983944802</v>
       </c>
       <c r="I5" t="n">
-        <v>11.99099911934892</v>
+        <v>11.99099911934891</v>
       </c>
       <c r="J5" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K5" t="n">
-        <v>39.56423200124193</v>
+        <v>39.56423200124192</v>
       </c>
       <c r="L5" t="n">
-        <v>49.08292830624872</v>
+        <v>49.08292830624871</v>
       </c>
       <c r="M5" t="n">
-        <v>54.61421500850463</v>
+        <v>54.61421500850462</v>
       </c>
       <c r="N5" t="n">
         <v>55.49793010474612</v>
       </c>
       <c r="O5" t="n">
-        <v>52.4051216618948</v>
+        <v>52.40512166189479</v>
       </c>
       <c r="P5" t="n">
         <v>44.72655890308729</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.58778305296907</v>
+        <v>33.58778305296906</v>
       </c>
       <c r="R5" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S5" t="n">
-        <v>7.087605017370168</v>
+        <v>7.087605017370167</v>
       </c>
       <c r="T5" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02488243121841417</v>
+        <v>0.02488243121841416</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1664159300179671</v>
+        <v>0.166415930017967</v>
       </c>
       <c r="H6" t="n">
-        <v>1.607227534647209</v>
+        <v>1.607227534647208</v>
       </c>
       <c r="I6" t="n">
-        <v>5.729671274741411</v>
+        <v>5.72967127474141</v>
       </c>
       <c r="J6" t="n">
         <v>15.72265591454837</v>
       </c>
       <c r="K6" t="n">
-        <v>26.87252322575217</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>36.13342375236606</v>
+        <v>31.78561213073773</v>
       </c>
       <c r="M6" t="n">
-        <v>41.31508778262809</v>
+        <v>41.31508778262807</v>
       </c>
       <c r="N6" t="n">
-        <v>30.74023446979464</v>
+        <v>39.56133548384176</v>
       </c>
       <c r="O6" t="n">
-        <v>39.59458313896781</v>
+        <v>39.5945831389678</v>
       </c>
       <c r="P6" t="n">
         <v>31.77814368913268</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.24284748790752</v>
+        <v>21.24284748790751</v>
       </c>
       <c r="R6" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S6" t="n">
-        <v>3.091102910640746</v>
+        <v>3.091102910640745</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6707729810811917</v>
+        <v>0.6707729810811914</v>
       </c>
       <c r="U6" t="n">
         <v>0.01094841644855047</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1395175254536595</v>
+        <v>0.1395175254536594</v>
       </c>
       <c r="H7" t="n">
         <v>1.240437635397082</v>
       </c>
       <c r="I7" t="n">
-        <v>4.195672492733688</v>
+        <v>4.195672492733687</v>
       </c>
       <c r="J7" t="n">
-        <v>9.863889049573723</v>
+        <v>9.863889049573721</v>
       </c>
       <c r="K7" t="n">
         <v>16.20939977543425</v>
@@ -31457,7 +31457,7 @@
         <v>21.87000628543136</v>
       </c>
       <c r="N7" t="n">
-        <v>21.34998641783138</v>
+        <v>21.34998641783137</v>
       </c>
       <c r="O7" t="n">
         <v>19.72016805230453</v>
@@ -31469,16 +31469,16 @@
         <v>11.68269024503325</v>
       </c>
       <c r="R7" t="n">
-        <v>6.273215280852723</v>
+        <v>6.273215280852722</v>
       </c>
       <c r="S7" t="n">
         <v>2.431409966315137</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5961203360292721</v>
+        <v>0.5961203360292719</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007610046842926889</v>
+        <v>0.007610046842926888</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3330542291766307</v>
+        <v>0.3330542291766306</v>
       </c>
       <c r="H8" t="n">
         <v>3.41089162455517</v>
@@ -31524,37 +31524,37 @@
         <v>12.84007317033207</v>
       </c>
       <c r="J8" t="n">
-        <v>28.26756138358009</v>
+        <v>28.26756138358008</v>
       </c>
       <c r="K8" t="n">
         <v>42.36574690462687</v>
       </c>
       <c r="L8" t="n">
-        <v>52.55845527079119</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M8" t="n">
-        <v>58.4814084189111</v>
+        <v>58.48140841891108</v>
       </c>
       <c r="N8" t="n">
-        <v>59.42769874755921</v>
+        <v>59.4276987475592</v>
       </c>
       <c r="O8" t="n">
-        <v>56.11589075618408</v>
+        <v>56.11589075618407</v>
       </c>
       <c r="P8" t="n">
-        <v>47.893614473386</v>
+        <v>47.89361447338599</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.96610989099791</v>
+        <v>35.9661098909979</v>
       </c>
       <c r="R8" t="n">
-        <v>20.92121772351655</v>
+        <v>20.92121772351654</v>
       </c>
       <c r="S8" t="n">
-        <v>7.58947324736248</v>
+        <v>7.589473247362479</v>
       </c>
       <c r="T8" t="n">
-        <v>1.457944888220702</v>
+        <v>1.457944888220701</v>
       </c>
       <c r="U8" t="n">
         <v>0.02664433833413045</v>
@@ -31600,22 +31600,22 @@
         <v>1.721034164112516</v>
       </c>
       <c r="I9" t="n">
-        <v>6.135385189956063</v>
+        <v>6.135385189956062</v>
       </c>
       <c r="J9" t="n">
         <v>16.83596590787816</v>
       </c>
       <c r="K9" t="n">
-        <v>28.77534732975953</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>38.69200558328343</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M9" t="n">
-        <v>45.15174553168938</v>
+        <v>45.15174553168937</v>
       </c>
       <c r="N9" t="n">
-        <v>38.3401477538028</v>
+        <v>44.71626125022897</v>
       </c>
       <c r="O9" t="n">
         <v>42.3982471846556</v>
@@ -31627,13 +31627,13 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>11.06401436293224</v>
+        <v>11.06401436293223</v>
       </c>
       <c r="S9" t="n">
-        <v>3.309981691651453</v>
+        <v>3.309981691651452</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7182699349770215</v>
+        <v>0.7182699349770214</v>
       </c>
       <c r="U9" t="n">
         <v>0.01172366596806891</v>
@@ -31679,22 +31679,22 @@
         <v>1.32827213505767</v>
       </c>
       <c r="I10" t="n">
-        <v>4.492765053957844</v>
+        <v>4.492765053957843</v>
       </c>
       <c r="J10" t="n">
-        <v>10.56234396149642</v>
+        <v>10.56234396149641</v>
       </c>
       <c r="K10" t="n">
         <v>17.35717575259408</v>
       </c>
       <c r="L10" t="n">
-        <v>22.21120909686414</v>
+        <v>22.21120909686413</v>
       </c>
       <c r="M10" t="n">
         <v>23.41860575132862</v>
       </c>
       <c r="N10" t="n">
-        <v>22.8617636497196</v>
+        <v>22.86176364971959</v>
       </c>
       <c r="O10" t="n">
         <v>21.1165390141888</v>
@@ -31706,13 +31706,13 @@
         <v>12.50993316566073</v>
       </c>
       <c r="R10" t="n">
-        <v>6.717417157459336</v>
+        <v>6.717417157459335</v>
       </c>
       <c r="S10" t="n">
-        <v>2.603576362889112</v>
+        <v>2.603576362889111</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6383311896493911</v>
+        <v>0.638331189649391</v>
       </c>
       <c r="U10" t="n">
         <v>0.00814890880403479</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5577004341200947</v>
+        <v>0.5577004341200953</v>
       </c>
       <c r="H11" t="n">
-        <v>5.711549570932422</v>
+        <v>5.711549570932428</v>
       </c>
       <c r="I11" t="n">
-        <v>21.50074598641497</v>
+        <v>21.500745986415</v>
       </c>
       <c r="J11" t="n">
-        <v>47.33412722040044</v>
+        <v>47.33412722040048</v>
       </c>
       <c r="K11" t="n">
-        <v>70.94158659670406</v>
+        <v>70.94158659670414</v>
       </c>
       <c r="L11" t="n">
-        <v>88.00931125740694</v>
+        <v>88.00931125740702</v>
       </c>
       <c r="M11" t="n">
-        <v>97.92731635269016</v>
+        <v>97.92731635269026</v>
       </c>
       <c r="N11" t="n">
-        <v>99.51188271113389</v>
+        <v>99.51188271113399</v>
       </c>
       <c r="O11" t="n">
-        <v>93.96624901935219</v>
+        <v>93.96624901935229</v>
       </c>
       <c r="P11" t="n">
-        <v>80.19801955201234</v>
+        <v>80.19801955201243</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.22537275508643</v>
+        <v>60.22537275508649</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479644</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
-        <v>12.70859864251167</v>
+        <v>12.70859864251169</v>
       </c>
       <c r="T11" t="n">
-        <v>2.441333650360716</v>
+        <v>2.441333650360719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04461603472960757</v>
+        <v>0.04461603472960762</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2983960388785019</v>
+        <v>0.2983960388785022</v>
       </c>
       <c r="H12" t="n">
-        <v>2.881877533379216</v>
+        <v>2.881877533379219</v>
       </c>
       <c r="I12" t="n">
-        <v>10.27372326840456</v>
+        <v>10.27372326840457</v>
       </c>
       <c r="J12" t="n">
-        <v>28.19188190123601</v>
+        <v>28.19188190123604</v>
       </c>
       <c r="K12" t="n">
-        <v>48.18441650609563</v>
+        <v>48.18441650609568</v>
       </c>
       <c r="L12" t="n">
-        <v>64.78989431877297</v>
+        <v>64.78989431877304</v>
       </c>
       <c r="M12" t="n">
-        <v>75.60675072811864</v>
+        <v>75.60675072811873</v>
       </c>
       <c r="N12" t="n">
-        <v>77.6078364449837</v>
+        <v>77.60783644498377</v>
       </c>
       <c r="O12" t="n">
-        <v>70.9960084256232</v>
+        <v>70.99600842562327</v>
       </c>
       <c r="P12" t="n">
-        <v>56.98055588022902</v>
+        <v>56.98055588022908</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.08999261192947</v>
+        <v>38.08999261192951</v>
       </c>
       <c r="R12" t="n">
-        <v>18.52672950159682</v>
+        <v>18.52672950159684</v>
       </c>
       <c r="S12" t="n">
-        <v>5.54257554671252</v>
+        <v>5.542575546712526</v>
       </c>
       <c r="T12" t="n">
-        <v>1.2027454374094</v>
+        <v>1.202745437409401</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01963131834726987</v>
+        <v>0.01963131834726989</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2501652152231328</v>
+        <v>0.2501652152231331</v>
       </c>
       <c r="H13" t="n">
-        <v>2.224196186256583</v>
+        <v>2.224196186256585</v>
       </c>
       <c r="I13" t="n">
-        <v>7.523150290528397</v>
+        <v>7.523150290528405</v>
       </c>
       <c r="J13" t="n">
-        <v>17.68668071627549</v>
+        <v>17.68668071627551</v>
       </c>
       <c r="K13" t="n">
-        <v>29.06464955046943</v>
+        <v>29.06464955046946</v>
       </c>
       <c r="L13" t="n">
-        <v>37.19274481599196</v>
+        <v>37.19274481599199</v>
       </c>
       <c r="M13" t="n">
-        <v>39.21453460084071</v>
+        <v>39.21453460084076</v>
       </c>
       <c r="N13" t="n">
-        <v>38.28210061682726</v>
+        <v>38.28210061682729</v>
       </c>
       <c r="O13" t="n">
-        <v>35.35971605717519</v>
+        <v>35.35971605717523</v>
       </c>
       <c r="P13" t="n">
-        <v>30.25634566662325</v>
+        <v>30.25634566662329</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.94792543109342</v>
+        <v>20.94792543109345</v>
       </c>
       <c r="R13" t="n">
-        <v>11.24833776812377</v>
+        <v>11.24833776812378</v>
       </c>
       <c r="S13" t="n">
-        <v>4.359697432570414</v>
+        <v>4.359697432570418</v>
       </c>
       <c r="T13" t="n">
-        <v>1.068887737771567</v>
+        <v>1.068887737771568</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01364537537580726</v>
+        <v>0.01364537537580728</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5577004341200947</v>
+        <v>0.5577004341200952</v>
       </c>
       <c r="H14" t="n">
-        <v>5.711549570932422</v>
+        <v>5.711549570932426</v>
       </c>
       <c r="I14" t="n">
-        <v>21.50074598641497</v>
+        <v>21.50074598641499</v>
       </c>
       <c r="J14" t="n">
-        <v>47.33412722040044</v>
+        <v>47.33412722040048</v>
       </c>
       <c r="K14" t="n">
-        <v>70.94158659670406</v>
+        <v>70.94158659670411</v>
       </c>
       <c r="L14" t="n">
-        <v>88.00931125740694</v>
+        <v>88.00931125740701</v>
       </c>
       <c r="M14" t="n">
-        <v>97.92731635269016</v>
+        <v>97.92731635269024</v>
       </c>
       <c r="N14" t="n">
-        <v>99.51188271113389</v>
+        <v>99.51188271113398</v>
       </c>
       <c r="O14" t="n">
-        <v>93.96624901935219</v>
+        <v>93.96624901935226</v>
       </c>
       <c r="P14" t="n">
-        <v>80.19801955201234</v>
+        <v>80.19801955201241</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.22537275508643</v>
+        <v>60.22537275508648</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479644</v>
+        <v>35.03264989479646</v>
       </c>
       <c r="S14" t="n">
-        <v>12.70859864251167</v>
+        <v>12.70859864251168</v>
       </c>
       <c r="T14" t="n">
-        <v>2.441333650360716</v>
+        <v>2.441333650360718</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04461603472960757</v>
+        <v>0.04461603472960761</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2983960388785019</v>
+        <v>0.2983960388785021</v>
       </c>
       <c r="H15" t="n">
-        <v>2.881877533379216</v>
+        <v>2.881877533379218</v>
       </c>
       <c r="I15" t="n">
-        <v>10.27372326840456</v>
+        <v>10.27372326840457</v>
       </c>
       <c r="J15" t="n">
-        <v>28.19188190123601</v>
+        <v>28.19188190123603</v>
       </c>
       <c r="K15" t="n">
-        <v>48.18441650609563</v>
+        <v>48.18441650609567</v>
       </c>
       <c r="L15" t="n">
-        <v>64.78989431877297</v>
+        <v>64.78989431877302</v>
       </c>
       <c r="M15" t="n">
-        <v>75.60675072811864</v>
+        <v>75.60675072811871</v>
       </c>
       <c r="N15" t="n">
-        <v>77.6078364449837</v>
+        <v>77.60783644498376</v>
       </c>
       <c r="O15" t="n">
-        <v>70.9960084256232</v>
+        <v>70.99600842562326</v>
       </c>
       <c r="P15" t="n">
-        <v>56.98055588022902</v>
+        <v>56.98055588022906</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.08999261192947</v>
+        <v>38.0899926119295</v>
       </c>
       <c r="R15" t="n">
-        <v>18.52672950159682</v>
+        <v>18.52672950159683</v>
       </c>
       <c r="S15" t="n">
-        <v>5.54257554671252</v>
+        <v>5.542575546712525</v>
       </c>
       <c r="T15" t="n">
-        <v>1.2027454374094</v>
+        <v>1.202745437409401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01963131834726987</v>
+        <v>0.01963131834726988</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2501652152231328</v>
+        <v>0.2501652152231331</v>
       </c>
       <c r="H16" t="n">
-        <v>2.224196186256583</v>
+        <v>2.224196186256584</v>
       </c>
       <c r="I16" t="n">
-        <v>7.523150290528397</v>
+        <v>7.523150290528403</v>
       </c>
       <c r="J16" t="n">
-        <v>17.68668071627549</v>
+        <v>17.6866807162755</v>
       </c>
       <c r="K16" t="n">
-        <v>29.06464955046943</v>
+        <v>29.06464955046945</v>
       </c>
       <c r="L16" t="n">
-        <v>37.19274481599196</v>
+        <v>37.19274481599199</v>
       </c>
       <c r="M16" t="n">
-        <v>39.21453460084071</v>
+        <v>39.21453460084075</v>
       </c>
       <c r="N16" t="n">
-        <v>38.28210061682726</v>
+        <v>38.28210061682729</v>
       </c>
       <c r="O16" t="n">
-        <v>35.35971605717519</v>
+        <v>35.35971605717522</v>
       </c>
       <c r="P16" t="n">
-        <v>30.25634566662325</v>
+        <v>30.25634566662328</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.94792543109342</v>
+        <v>20.94792543109344</v>
       </c>
       <c r="R16" t="n">
-        <v>11.24833776812377</v>
+        <v>11.24833776812378</v>
       </c>
       <c r="S16" t="n">
-        <v>4.359697432570414</v>
+        <v>4.359697432570417</v>
       </c>
       <c r="T16" t="n">
-        <v>1.068887737771567</v>
+        <v>1.068887737771568</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01364537537580726</v>
+        <v>0.01364537537580727</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,22 +32232,22 @@
         <v>22.73877318792512</v>
       </c>
       <c r="I17" t="n">
-        <v>85.59858936433382</v>
+        <v>85.59858936433383</v>
       </c>
       <c r="J17" t="n">
         <v>188.4462297921309</v>
       </c>
       <c r="K17" t="n">
-        <v>282.4320488127456</v>
+        <v>282.4320488127457</v>
       </c>
       <c r="L17" t="n">
-        <v>350.3819309023308</v>
+        <v>350.3819309023309</v>
       </c>
       <c r="M17" t="n">
-        <v>389.8674094992562</v>
+        <v>389.8674094992563</v>
       </c>
       <c r="N17" t="n">
-        <v>396.1758717787819</v>
+        <v>396.175871778782</v>
       </c>
       <c r="O17" t="n">
         <v>374.0976414956202</v>
@@ -32259,13 +32259,13 @@
         <v>239.76874825803</v>
       </c>
       <c r="R17" t="n">
-        <v>139.4716915675334</v>
+        <v>139.4716915675335</v>
       </c>
       <c r="S17" t="n">
-        <v>50.59536619258821</v>
+        <v>50.59536619258822</v>
       </c>
       <c r="T17" t="n">
-        <v>9.719417027232245</v>
+        <v>9.719417027232247</v>
       </c>
       <c r="U17" t="n">
         <v>0.1776249827935075</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.187971804143135</v>
+        <v>1.187971804143136</v>
       </c>
       <c r="H18" t="n">
         <v>11.47330663475081</v>
       </c>
       <c r="I18" t="n">
-        <v>40.90166080054216</v>
+        <v>40.90166080054217</v>
       </c>
       <c r="J18" t="n">
-        <v>112.2372834782775</v>
+        <v>112.2372834782776</v>
       </c>
       <c r="K18" t="n">
         <v>191.8313943558676</v>
       </c>
       <c r="L18" t="n">
-        <v>257.9409831759031</v>
+        <v>257.9409831759032</v>
       </c>
       <c r="M18" t="n">
-        <v>301.0049610760917</v>
+        <v>301.0049610760918</v>
       </c>
       <c r="N18" t="n">
-        <v>308.9716667275604</v>
+        <v>308.9716667275605</v>
       </c>
       <c r="O18" t="n">
-        <v>282.6487125410204</v>
+        <v>282.6487125410205</v>
       </c>
       <c r="P18" t="n">
-        <v>226.8505105648413</v>
+        <v>226.8505105648414</v>
       </c>
       <c r="Q18" t="n">
         <v>151.6435587183413</v>
       </c>
       <c r="R18" t="n">
-        <v>73.75845990986943</v>
+        <v>73.75845990986944</v>
       </c>
       <c r="S18" t="n">
         <v>22.06605522169375</v>
       </c>
       <c r="T18" t="n">
-        <v>4.788360035120793</v>
+        <v>4.788360035120794</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07815603974625893</v>
+        <v>0.07815603974625894</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9959556540342935</v>
+        <v>0.9959556540342938</v>
       </c>
       <c r="H19" t="n">
-        <v>8.854951178595817</v>
+        <v>8.854951178595819</v>
       </c>
       <c r="I19" t="n">
         <v>29.95110275950404</v>
       </c>
       <c r="J19" t="n">
-        <v>70.41406474022455</v>
+        <v>70.41406474022456</v>
       </c>
       <c r="K19" t="n">
         <v>115.7119387141661</v>
@@ -32405,19 +32405,19 @@
         <v>156.1205758410302</v>
       </c>
       <c r="N19" t="n">
-        <v>152.4083774941752</v>
+        <v>152.4083774941753</v>
       </c>
       <c r="O19" t="n">
-        <v>140.7738046265927</v>
+        <v>140.7738046265928</v>
       </c>
       <c r="P19" t="n">
         <v>120.4563092842931</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.39770481190799</v>
+        <v>83.397704811908</v>
       </c>
       <c r="R19" t="n">
-        <v>44.78178786230558</v>
+        <v>44.7817878623056</v>
       </c>
       <c r="S19" t="n">
         <v>17.35679080712491</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.220312284918843</v>
+        <v>2.220312284918844</v>
       </c>
       <c r="H20" t="n">
-        <v>22.73877318792511</v>
+        <v>22.73877318792512</v>
       </c>
       <c r="I20" t="n">
-        <v>85.59858936433379</v>
+        <v>85.59858936433383</v>
       </c>
       <c r="J20" t="n">
         <v>188.4462297921309</v>
       </c>
       <c r="K20" t="n">
-        <v>282.4320488127456</v>
+        <v>282.4320488127457</v>
       </c>
       <c r="L20" t="n">
-        <v>350.3819309023307</v>
+        <v>350.3819309023309</v>
       </c>
       <c r="M20" t="n">
-        <v>389.8674094992562</v>
+        <v>389.8674094992563</v>
       </c>
       <c r="N20" t="n">
-        <v>396.1758717787819</v>
+        <v>396.175871778782</v>
       </c>
       <c r="O20" t="n">
-        <v>374.0976414956201</v>
+        <v>374.0976414956202</v>
       </c>
       <c r="P20" t="n">
-        <v>319.2836819616861</v>
+        <v>319.2836819616862</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.7687482580299</v>
+        <v>239.76874825803</v>
       </c>
       <c r="R20" t="n">
-        <v>139.4716915675334</v>
+        <v>139.4716915675335</v>
       </c>
       <c r="S20" t="n">
-        <v>50.59536619258819</v>
+        <v>50.59536619258822</v>
       </c>
       <c r="T20" t="n">
-        <v>9.719417027232243</v>
+        <v>9.719417027232247</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1776249827935074</v>
+        <v>0.1776249827935075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.187971804143135</v>
+        <v>1.187971804143136</v>
       </c>
       <c r="H21" t="n">
         <v>11.47330663475081</v>
       </c>
       <c r="I21" t="n">
-        <v>40.90166080054215</v>
+        <v>40.90166080054217</v>
       </c>
       <c r="J21" t="n">
-        <v>112.2372834782775</v>
+        <v>112.2372834782776</v>
       </c>
       <c r="K21" t="n">
         <v>191.8313943558676</v>
       </c>
       <c r="L21" t="n">
-        <v>257.9409831759031</v>
+        <v>257.9409831759032</v>
       </c>
       <c r="M21" t="n">
-        <v>301.0049610760917</v>
+        <v>301.0049610760918</v>
       </c>
       <c r="N21" t="n">
-        <v>308.9716667275604</v>
+        <v>308.9716667275605</v>
       </c>
       <c r="O21" t="n">
-        <v>282.6487125410204</v>
+        <v>282.6487125410205</v>
       </c>
       <c r="P21" t="n">
-        <v>226.8505105648413</v>
+        <v>226.8505105648414</v>
       </c>
       <c r="Q21" t="n">
-        <v>151.6435587183412</v>
+        <v>151.6435587183413</v>
       </c>
       <c r="R21" t="n">
-        <v>73.7584599098694</v>
+        <v>73.75845990986944</v>
       </c>
       <c r="S21" t="n">
-        <v>22.06605522169374</v>
+        <v>22.06605522169375</v>
       </c>
       <c r="T21" t="n">
-        <v>4.788360035120792</v>
+        <v>4.788360035120794</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07815603974625891</v>
+        <v>0.07815603974625894</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9959556540342933</v>
+        <v>0.9959556540342938</v>
       </c>
       <c r="H22" t="n">
-        <v>8.854951178595815</v>
+        <v>8.854951178595819</v>
       </c>
       <c r="I22" t="n">
-        <v>29.95110275950403</v>
+        <v>29.95110275950404</v>
       </c>
       <c r="J22" t="n">
-        <v>70.41406474022453</v>
+        <v>70.41406474022456</v>
       </c>
       <c r="K22" t="n">
         <v>115.7119387141661</v>
@@ -32642,28 +32642,28 @@
         <v>156.1205758410302</v>
       </c>
       <c r="N22" t="n">
-        <v>152.4083774941752</v>
+        <v>152.4083774941753</v>
       </c>
       <c r="O22" t="n">
-        <v>140.7738046265927</v>
+        <v>140.7738046265928</v>
       </c>
       <c r="P22" t="n">
-        <v>120.456309284293</v>
+        <v>120.4563092842931</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.39770481190797</v>
+        <v>83.397704811908</v>
       </c>
       <c r="R22" t="n">
-        <v>44.78178786230558</v>
+        <v>44.7817878623056</v>
       </c>
       <c r="S22" t="n">
         <v>17.35679080712491</v>
       </c>
       <c r="T22" t="n">
-        <v>4.255446885419253</v>
+        <v>4.255446885419254</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05432485385641606</v>
+        <v>0.05432485385641608</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>233.2709361433901</v>
       </c>
       <c r="Q45" t="n">
-        <v>155.9354431879555</v>
+        <v>155.9354431879559</v>
       </c>
       <c r="R45" t="n">
         <v>75.84600514598354</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.799631206432586</v>
+        <v>3.799631206432579</v>
       </c>
       <c r="L2" t="n">
         <v>10.77088587362579</v>
       </c>
       <c r="M2" t="n">
-        <v>17.18295210907282</v>
+        <v>17.18295210907281</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="O2" t="n">
-        <v>15.0141623058707</v>
+        <v>15.01416230587069</v>
       </c>
       <c r="P2" t="n">
-        <v>7.151197092855995</v>
+        <v>7.151197092855988</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.473289392418831</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.6183370381365</v>
+        <v>9.270525416508173</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="O3" t="n">
         <v>16.42269341674558</v>
       </c>
       <c r="P3" t="n">
-        <v>1.186201470256887</v>
+        <v>10.00730248430401</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6010854422309855</v>
+        <v>0.6010854422309819</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.799631206432586</v>
+        <v>3.799631206432579</v>
       </c>
       <c r="L5" t="n">
         <v>10.77088587362579</v>
       </c>
       <c r="M5" t="n">
-        <v>17.18295210907282</v>
+        <v>17.18295210907281</v>
       </c>
       <c r="N5" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="O5" t="n">
-        <v>15.0141623058707</v>
+        <v>15.01416230587069</v>
       </c>
       <c r="P5" t="n">
-        <v>7.151197092855995</v>
+        <v>7.151197092855988</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.473289392418831</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.6183370381365</v>
+        <v>9.270525416508173</v>
       </c>
       <c r="M6" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="N6" t="n">
-        <v>9.397206256252973</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="O6" t="n">
         <v>16.42269341674558</v>
       </c>
       <c r="P6" t="n">
-        <v>10.00730248430402</v>
+        <v>10.00730248430401</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6010854422309855</v>
+        <v>0.6010854422309819</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.601146109817535</v>
+        <v>6.601146109817527</v>
       </c>
       <c r="L8" t="n">
-        <v>14.24641283816827</v>
+        <v>14.24641283816825</v>
       </c>
       <c r="M8" t="n">
-        <v>21.05014551947929</v>
+        <v>21.05014551947927</v>
       </c>
       <c r="N8" t="n">
-        <v>22.14807591311318</v>
+        <v>22.14807591311317</v>
       </c>
       <c r="O8" t="n">
-        <v>18.72493140015998</v>
+        <v>18.72493140015997</v>
       </c>
       <c r="P8" t="n">
-        <v>10.3182526631547</v>
+        <v>10.31825266315469</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.376113496426196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.17691886905387</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M9" t="n">
-        <v>22.0549650193614</v>
+        <v>22.05496501936139</v>
       </c>
       <c r="N9" t="n">
-        <v>16.99711954026114</v>
+        <v>23.37323303668731</v>
       </c>
       <c r="O9" t="n">
-        <v>19.22635746243338</v>
+        <v>19.22635746243337</v>
       </c>
       <c r="P9" t="n">
-        <v>12.25749005635695</v>
+        <v>12.25749005635694</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2924492011629169</v>
+        <v>0.2924492011629134</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8431658598428022</v>
+        <v>0.8431658598427987</v>
       </c>
       <c r="N10" t="n">
-        <v>2.112862674119203</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.91416773481392</v>
+        <v>17.91416773481396</v>
       </c>
       <c r="K11" t="n">
-        <v>35.17698580189472</v>
+        <v>35.1769858018948</v>
       </c>
       <c r="L11" t="n">
-        <v>49.69726882478401</v>
+        <v>49.6972688247841</v>
       </c>
       <c r="M11" t="n">
-        <v>60.49605345325834</v>
+        <v>60.49605345325844</v>
       </c>
       <c r="N11" t="n">
-        <v>62.23225987668787</v>
+        <v>62.23225987668797</v>
       </c>
       <c r="O11" t="n">
-        <v>56.57528966332809</v>
+        <v>56.57528966332819</v>
       </c>
       <c r="P11" t="n">
-        <v>42.62265774178104</v>
+        <v>42.62265774178113</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.10069815048838</v>
+        <v>24.10069815048845</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.580767567902672</v>
+        <v>7.580767567902701</v>
       </c>
       <c r="K12" t="n">
-        <v>25.78518267276229</v>
+        <v>25.78518267276234</v>
       </c>
       <c r="L12" t="n">
-        <v>42.27480760454341</v>
+        <v>42.27480760454348</v>
       </c>
       <c r="M12" t="n">
-        <v>52.50997021579066</v>
+        <v>52.50997021579074</v>
       </c>
       <c r="N12" t="n">
-        <v>56.26480823144204</v>
+        <v>56.26480823144211</v>
       </c>
       <c r="O12" t="n">
-        <v>47.82411870340098</v>
+        <v>47.82411870340106</v>
       </c>
       <c r="P12" t="n">
-        <v>35.20971467540036</v>
+        <v>35.20971467540041</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.34295432295098</v>
+        <v>15.34295432295101</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.099995097757429</v>
+        <v>8.099995097757461</v>
       </c>
       <c r="L13" t="n">
-        <v>15.27398492029074</v>
+        <v>15.27398492029077</v>
       </c>
       <c r="M13" t="n">
-        <v>16.6390947093549</v>
+        <v>16.63909470935494</v>
       </c>
       <c r="N13" t="n">
-        <v>17.53319964122687</v>
+        <v>17.5331996412269</v>
       </c>
       <c r="O13" t="n">
-        <v>12.86052855875074</v>
+        <v>12.86052855875078</v>
       </c>
       <c r="P13" t="n">
-        <v>7.87554500863677</v>
+        <v>7.875545008636802</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.91416773481392</v>
+        <v>17.91416773481395</v>
       </c>
       <c r="K14" t="n">
-        <v>35.17698580189472</v>
+        <v>35.17698580189477</v>
       </c>
       <c r="L14" t="n">
-        <v>49.69726882478401</v>
+        <v>49.69726882478408</v>
       </c>
       <c r="M14" t="n">
-        <v>60.49605345325834</v>
+        <v>60.49605345325843</v>
       </c>
       <c r="N14" t="n">
-        <v>62.23225987668787</v>
+        <v>62.23225987668796</v>
       </c>
       <c r="O14" t="n">
-        <v>56.57528966332809</v>
+        <v>56.57528966332816</v>
       </c>
       <c r="P14" t="n">
-        <v>42.62265774178104</v>
+        <v>42.62265774178111</v>
       </c>
       <c r="Q14" t="n">
-        <v>24.10069815048838</v>
+        <v>24.10069815048843</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.580767567902672</v>
+        <v>7.580767567902697</v>
       </c>
       <c r="K15" t="n">
-        <v>25.78518267276229</v>
+        <v>25.78518267276234</v>
       </c>
       <c r="L15" t="n">
-        <v>42.27480760454341</v>
+        <v>42.27480760454347</v>
       </c>
       <c r="M15" t="n">
-        <v>52.50997021579066</v>
+        <v>52.50997021579073</v>
       </c>
       <c r="N15" t="n">
-        <v>56.26480823144204</v>
+        <v>56.2648082314421</v>
       </c>
       <c r="O15" t="n">
-        <v>47.82411870340098</v>
+        <v>47.82411870340104</v>
       </c>
       <c r="P15" t="n">
-        <v>35.20971467540036</v>
+        <v>35.2097146754004</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.34295432295098</v>
+        <v>15.34295432295101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.099995097757429</v>
+        <v>8.099995097757454</v>
       </c>
       <c r="L16" t="n">
-        <v>15.27398492029074</v>
+        <v>15.27398492029076</v>
       </c>
       <c r="M16" t="n">
-        <v>16.6390947093549</v>
+        <v>16.63909470935493</v>
       </c>
       <c r="N16" t="n">
-        <v>17.53319964122687</v>
+        <v>17.53319964122689</v>
       </c>
       <c r="O16" t="n">
-        <v>12.86052855875074</v>
+        <v>12.86052855875077</v>
       </c>
       <c r="P16" t="n">
-        <v>7.87554500863677</v>
+        <v>7.875545008636795</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.05068682037032</v>
+        <v>51.05068682037033</v>
       </c>
       <c r="J17" t="n">
         <v>159.0262703065444</v>
       </c>
       <c r="K17" t="n">
-        <v>246.6674480179363</v>
+        <v>246.6674480179364</v>
       </c>
       <c r="L17" t="n">
-        <v>312.0698884697078</v>
+        <v>312.0698884697079</v>
       </c>
       <c r="M17" t="n">
-        <v>352.4361465998244</v>
+        <v>352.4361465998245</v>
       </c>
       <c r="N17" t="n">
-        <v>358.8962489443359</v>
+        <v>358.896248944336</v>
       </c>
       <c r="O17" t="n">
         <v>336.7066821395961</v>
@@ -35904,7 +35904,7 @@
         <v>281.7083201514549</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.6440736534319</v>
+        <v>203.644073653432</v>
       </c>
       <c r="R17" t="n">
         <v>104.439041672737</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.72927405054216</v>
+        <v>24.72927405054217</v>
       </c>
       <c r="J18" t="n">
-        <v>91.62616914494421</v>
+        <v>91.62616914494423</v>
       </c>
       <c r="K18" t="n">
-        <v>169.4321605225342</v>
+        <v>169.4321605225343</v>
       </c>
       <c r="L18" t="n">
-        <v>235.4258964616735</v>
+        <v>235.4258964616736</v>
       </c>
       <c r="M18" t="n">
-        <v>277.9081805637637</v>
+        <v>277.9081805637638</v>
       </c>
       <c r="N18" t="n">
-        <v>287.6286385140187</v>
+        <v>287.6286385140188</v>
       </c>
       <c r="O18" t="n">
-        <v>259.4768228187982</v>
+        <v>259.4768228187983</v>
       </c>
       <c r="P18" t="n">
         <v>205.0796693600127</v>
@@ -35986,7 +35986,7 @@
         <v>128.8965204293628</v>
       </c>
       <c r="R18" t="n">
-        <v>50.08554051572528</v>
+        <v>50.0855405157253</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.77730875632268</v>
+        <v>49.7773087563227</v>
       </c>
       <c r="K19" t="n">
-        <v>94.74728426145408</v>
+        <v>94.74728426145411</v>
       </c>
       <c r="L19" t="n">
         <v>126.1526834322701</v>
@@ -36053,16 +36053,16 @@
         <v>133.5451359495444</v>
       </c>
       <c r="N19" t="n">
-        <v>131.6594765185748</v>
+        <v>131.6594765185749</v>
       </c>
       <c r="O19" t="n">
         <v>118.2746171281683</v>
       </c>
       <c r="P19" t="n">
-        <v>98.07550862630657</v>
+        <v>98.0755086263066</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.77814204712304</v>
+        <v>58.77814204712305</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>51.05068682037029</v>
+        <v>51.05068682037033</v>
       </c>
       <c r="J20" t="n">
-        <v>159.0262703065443</v>
+        <v>159.0262703065444</v>
       </c>
       <c r="K20" t="n">
-        <v>246.6674480179362</v>
+        <v>246.6674480179364</v>
       </c>
       <c r="L20" t="n">
-        <v>312.0698884697077</v>
+        <v>312.0698884697079</v>
       </c>
       <c r="M20" t="n">
-        <v>352.4361465998243</v>
+        <v>352.4361465998245</v>
       </c>
       <c r="N20" t="n">
-        <v>358.8962489443359</v>
+        <v>358.896248944336</v>
       </c>
       <c r="O20" t="n">
-        <v>336.706682139596</v>
+        <v>336.7066821395961</v>
       </c>
       <c r="P20" t="n">
-        <v>281.7083201514548</v>
+        <v>281.7083201514549</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.6440736534319</v>
+        <v>203.644073653432</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4390416727369</v>
+        <v>104.439041672737</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.72927405054215</v>
+        <v>24.72927405054217</v>
       </c>
       <c r="J21" t="n">
-        <v>91.62616914494419</v>
+        <v>91.62616914494423</v>
       </c>
       <c r="K21" t="n">
-        <v>169.4321605225342</v>
+        <v>169.4321605225343</v>
       </c>
       <c r="L21" t="n">
-        <v>235.4258964616735</v>
+        <v>235.4258964616736</v>
       </c>
       <c r="M21" t="n">
-        <v>277.9081805637637</v>
+        <v>277.9081805637638</v>
       </c>
       <c r="N21" t="n">
-        <v>287.6286385140187</v>
+        <v>287.6286385140188</v>
       </c>
       <c r="O21" t="n">
-        <v>259.4768228187982</v>
+        <v>259.4768228187983</v>
       </c>
       <c r="P21" t="n">
-        <v>205.0796693600126</v>
+        <v>205.0796693600127</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.8965204293627</v>
+        <v>128.8965204293628</v>
       </c>
       <c r="R21" t="n">
-        <v>50.08554051572526</v>
+        <v>50.0855405157253</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.77730875632267</v>
+        <v>49.7773087563227</v>
       </c>
       <c r="K22" t="n">
-        <v>94.74728426145406</v>
+        <v>94.74728426145411</v>
       </c>
       <c r="L22" t="n">
-        <v>126.15268343227</v>
+        <v>126.1526834322701</v>
       </c>
       <c r="M22" t="n">
-        <v>133.5451359495443</v>
+        <v>133.5451359495444</v>
       </c>
       <c r="N22" t="n">
-        <v>131.6594765185748</v>
+        <v>131.6594765185749</v>
       </c>
       <c r="O22" t="n">
         <v>118.2746171281683</v>
       </c>
       <c r="P22" t="n">
-        <v>98.07550862630654</v>
+        <v>98.0755086263066</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.77814204712303</v>
+        <v>58.77814204712305</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>211.5000949385615</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.188404898977</v>
+        <v>133.1884048989774</v>
       </c>
       <c r="R45" t="n">
         <v>52.17308575183939</v>
